--- a/Dataset_Rotas_BI.xlsx
+++ b/Dataset_Rotas_BI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mundimed-10\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE9BEB9-6659-4CF1-9AAD-227DD97BF4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4E9928-D5C4-40C7-80CD-055298BFBC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Custo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Custo!$B$1:$P$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Custo!$B$1:$P$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5137,7 +5137,7 @@
         <v>-25.361934099999999</v>
       </c>
       <c r="P81" s="7">
-        <v>49.188909299999999</v>
+        <v>-49.188909299999999</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -5491,11 +5491,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:P10" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:P10">
-      <sortCondition ref="C1:C10"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="B1:P88" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Dataset_Rotas_BI.xlsx
+++ b/Dataset_Rotas_BI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mundimed-10\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4E9928-D5C4-40C7-80CD-055298BFBC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DC2955-D5DC-42FB-95D2-E12E46ADC792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-2835" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Custo" sheetId="1" r:id="rId1"/>
@@ -1065,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA115" sqref="AA115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5134,10 +5134,10 @@
         <v>-49.345876400000002</v>
       </c>
       <c r="O81" s="7">
-        <v>-25.361934099999999</v>
+        <v>-25.35792</v>
       </c>
       <c r="P81" s="7">
-        <v>-49.188909299999999</v>
+        <v>-49.192500000000003</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">

--- a/Dataset_Rotas_BI.xlsx
+++ b/Dataset_Rotas_BI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mundimed-10\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DC2955-D5DC-42FB-95D2-E12E46ADC792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C64A9B9-9639-443A-81D0-6A9B7C3A9717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2835" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="526">
   <si>
     <t>Cliente</t>
   </si>
@@ -661,6 +661,951 @@
   </si>
   <si>
     <t>Rua Rodolfo Cremm, 21102 - Gleba Patrimônio, Maringá - PR, 87070-792</t>
+  </si>
+  <si>
+    <t>Alameda Nossa Sra. do Sagrado Coração, 771 - Pinheirinho, Curitiba - PR, 81870-010</t>
+  </si>
+  <si>
+    <t>R. Holanda, 288 - Bacacheri, Curitiba - PR, 82510-190</t>
+  </si>
+  <si>
+    <t>R. Carlos de Laet, 6270 - Boqueirão, Curitiba - PR, 81730-030</t>
+  </si>
+  <si>
+    <t>R. Gen. Adalberto Gonçalves de Menezes, 435 - Tarumã, Curitiba - PR, 82800-080</t>
+  </si>
+  <si>
+    <t>R. Eduardo Sprada, 4459 - Campo Comprido, Curitiba - PR, 81020-430</t>
+  </si>
+  <si>
+    <t>R. Peru, 230 - Bacacheri, Curitiba - PR, 82510-140</t>
+  </si>
+  <si>
+    <t>R. Cel. Hoche Pedra Píres, 475 - Vila Izabel, Curitiba - PR, 80240-510</t>
+  </si>
+  <si>
+    <t>Rua Nossa Senhora do Perpétuo Socorro, 201 - Capão Raso, Curitiba - PR, 81130-150</t>
+  </si>
+  <si>
+    <t>R. Ilha de Granada, 36 - Jardim Social, Curitiba - PR, 82520-170</t>
+  </si>
+  <si>
+    <t>Av. Iguaçu, 3681 - Vila Izabel, Curitiba - PR, 80240-031</t>
+  </si>
+  <si>
+    <t>R. Nunes Machado, 1796 - Rebouças, Curitiba - PR, 80220-070</t>
+  </si>
+  <si>
+    <t>R. Josefina Rocha, 300 - Bigorrilho, Curitiba - PR, 80440-190</t>
+  </si>
+  <si>
+    <t>R. Marcos Bertoldi, 100 - Tatuquara, Curitiba - PR, 81490-530</t>
+  </si>
+  <si>
+    <t>R. Carlos Munhoz da Rocha, 629 - Tatuquara, Curitiba - PR, 81020-490</t>
+  </si>
+  <si>
+    <t>R. Francisco Torres, 830 - Centro, Curitiba - PR, 80060-130</t>
+  </si>
+  <si>
+    <t>Av. Sen. Salgado Filho, 5265 - Uberaba, Curitiba - PR, 80215-270</t>
+  </si>
+  <si>
+    <t>R. do Rosário, 144 - 1º andar - São Francisco, Curitiba - PR, 80020-110</t>
+  </si>
+  <si>
+    <t>Av. Presidente Arthur da Silva Bernardes, 2350 - Portão, Curitiba - PR, 80320-300</t>
+  </si>
+  <si>
+    <t>R. Antônio Schwartz, 35 - Sítio Cercado, Curitiba - PR, 81920-140</t>
+  </si>
+  <si>
+    <t>R. Prof. Nilo Brandão, 423 - São Lourenço, Curitiba - PR, 82210-050</t>
+  </si>
+  <si>
+    <t> Av. Mal. Floriano Peixoto, 6003 - Hauer, Curitiba - PR, 81610-000</t>
+  </si>
+  <si>
+    <t>Av. Prefeito Maurício Fruet, 2150 - Cajuru, Curitiba - PR, 82900-010</t>
+  </si>
+  <si>
+    <t>Rua Manoel Valdomiro de Macedo, 2460 - Cidade Industrial de Curitiba, Curitiba - PR, 81170-150</t>
+  </si>
+  <si>
+    <t>R. Carmelo Rangel, 195 - Batel, Curitiba - PR, 80440-050</t>
+  </si>
+  <si>
+    <t>R. Rubem Berta, 48 - Pinheirinho, Curitiba - PR, 81150-311</t>
+  </si>
+  <si>
+    <t>R. Carlos Klemtz, 1700 - Sala 56-B - Fazendinha, Curitiba - PR, 81320-000</t>
+  </si>
+  <si>
+    <t>R. Via Veneto, 480 - Santa Felicidade, Curitiba - PR, 82020-470</t>
+  </si>
+  <si>
+    <t>R. Olivardo Konoroski Bueno, 100 - Tatuquara, Curitiba - PR, 81470-390</t>
+  </si>
+  <si>
+    <t>R. Conselheiro Laurindo, 540 - Centro, Curitiba - PR, 80060-100</t>
+  </si>
+  <si>
+    <t>R. Gen. Carneiro, 181 - Alto da Glória, Curitiba - PR, 80060-900</t>
+  </si>
+  <si>
+    <t>Av. Rep. Argentina, 4406 - Novo Mundo, Curitiba - PR, 81050-000</t>
+  </si>
+  <si>
+    <t>R. João Antônio Xavier, 1001 - Água Verde, Curitiba - PR, 80620-360</t>
+  </si>
+  <si>
+    <t>R. Ubaldino do Amaral, 545 - Alto da XV, Curitiba - PR, 82590-300</t>
+  </si>
+  <si>
+    <t>Alameda Augusto Stellfeld, 1908 - Bigorrilho, Curitiba - PR, 80730-150</t>
+  </si>
+  <si>
+    <t>R. Primo Lourenço Tosin, 1021 - Novo Mundo, Curitiba - PR, 81050-290</t>
+  </si>
+  <si>
+    <t>R. José Gonçalves Júnior, 140 - Campo Comprido, Curitiba - PR, 81220-210</t>
+  </si>
+  <si>
+    <t>R. Prof. Álvaro Jorge, 370 - Vila Izabel, Curitiba - PR, 80320-040</t>
+  </si>
+  <si>
+    <t>R. Delegado Miguel Zacarias, 403 - Boa Vista, Curitiba - PR, 82650-090</t>
+  </si>
+  <si>
+    <t>R. Aldo Pinheiro, 60 - Abranches, Curitiba - PR, 82130-230</t>
+  </si>
+  <si>
+    <t>Rua Ivone Espírito Santo Garcia, 100 - Uberaba, Curitiba - PR, 81020-520</t>
+  </si>
+  <si>
+    <t>R. do Rosário, 144 - Centro, Curitiba - PR, 80020-110</t>
+  </si>
+  <si>
+    <t>R. Emília Erichsen, 45 - Cidade Industrial de Curitiba, Curitiba - PR, 81270-080</t>
+  </si>
+  <si>
+    <t>R. Rio Pelotas, 820 - Bairro Alto, Curitiba - PR, 82840-380</t>
+  </si>
+  <si>
+    <t>R. Robert Redzimski, 921 - Cidade Industrial de Curitiba, Curitiba - PR, 81020-430</t>
+  </si>
+  <si>
+    <t>Rua Theophilo Mansur, 500 - Novo Mundo, Curitiba - PR, 81050-380</t>
+  </si>
+  <si>
+    <t>Av. Pref. Erasto Gaertner, 797 - Bacacheri, Curitiba - PR, 82510-160</t>
+  </si>
+  <si>
+    <t>R. Jorn. Alceu Chichorro, 314 - Bairro Alto, Curitiba - PR, 82820-290</t>
+  </si>
+  <si>
+    <t>Rua Arthur Martins Franco, 5516 - Cidade Industrial de Curitiba, Curitiba - PR, 81540-160</t>
+  </si>
+  <si>
+    <t>Rua Santa Gema Galgani, 353 - Barreirinha, Curitiba - PR, 82220-010</t>
+  </si>
+  <si>
+    <t>R. José Casagrande, 220 - Vista Alegre, Curitiba - PR, 80820-590</t>
+  </si>
+  <si>
+    <t>Av. Manoel Ribas, 8640 - Butiatuvinha, Curitiba - PR, 81540-160</t>
+  </si>
+  <si>
+    <t>Rua Arnaud Ferreira Velloso, 200 - Cidade Industrial de Curitiba, Curitiba - PR, 81260-120</t>
+  </si>
+  <si>
+    <t>Rua Pedro Bocchino, 750 - Vila Oficinas, Curitiba - PR, 82950-070</t>
+  </si>
+  <si>
+    <t>R. Pedro Violani, 364 - Cajuru, Curitiba - PR, 82940-280</t>
+  </si>
+  <si>
+    <t>R. Gen. Mário Tourinho, 1684 - Campina do Siqueira, Curitiba - PR, 80740-000</t>
+  </si>
+  <si>
+    <t>Av. das Industrias, 1749 - Cidade Industrial de Curitiba, Curitiba - PR, 81310-060</t>
+  </si>
+  <si>
+    <t>R. Durval Leopoldo Landal, 1529 - Cidade Industrial de Curitiba, Curitiba - PR, 81450-285</t>
+  </si>
+  <si>
+    <t>R. Manoel Martins de Abreu, 830 - Prado Velho, Curitiba - PR, 80430-015</t>
+  </si>
+  <si>
+    <t>Estr. Delegado Bruno de Almeida, 7881 - Caximba, Curitiba - PR, 81495-000</t>
+  </si>
+  <si>
+    <t>R. do Rosário, 144 sexto andar - São Francisco, Curitiba - PR, 80020-110</t>
+  </si>
+  <si>
+    <t>R. Dilermando Pereira de Almeida, 700 - Pinheirinho, Curitiba - PR, 81870-070</t>
+  </si>
+  <si>
+    <t>Rua Coronel Victor Agner Kendrick, 80 - Sítio Cercado, Curitiba - PR, 81910-470</t>
+  </si>
+  <si>
+    <t>R. Ângelo Tozim, 100 - Campo de Santana, Curitiba - PR, 81490-030</t>
+  </si>
+  <si>
+    <t>R. Expedicionário Francisco Pereira dos Santos, 510 - Alto Boqueirão, Curitiba - PR, 81850-280</t>
+  </si>
+  <si>
+    <t>R. Cel. Rivadávia Pereira de Morães, 431 - Xaxim, Curitiba - PR, 81810-550</t>
+  </si>
+  <si>
+    <t>Rua Francisco Nowotarski - Fazendinha, Curitiba - PR, 81320-100</t>
+  </si>
+  <si>
+    <t>Rua Lázaro Borssatto, 150 - Alto Boqueirão, Curitiba - PR, 81770-580</t>
+  </si>
+  <si>
+    <t>Rua Conde dos Arcos, 295 - Lindoia, Curitiba - PR, 81010-120</t>
+  </si>
+  <si>
+    <t>Rua João Mequetti, 389 - Santa Cândida, Curitiba - PR, 82640-360</t>
+  </si>
+  <si>
+    <t>Rua Santa Regina, 667 - Capão Raso, Curitiba - PR, 81070-410</t>
+  </si>
+  <si>
+    <t>R. Prof. Nivaldo Braga, 1571 - Capão da Imbuia, Curitiba - PR, 82810-150</t>
+  </si>
+  <si>
+    <t>R. Maestro Carlos Frank, 785 - Boqueirão, Curitiba - PR, 81730-320</t>
+  </si>
+  <si>
+    <t>R. José Ursolino Filho, 646 - Santa Cândida, Curitiba - PR, 81540-160</t>
+  </si>
+  <si>
+    <t>R. Eng. João Visinoni, 458 - Cidade Industrial de Curitiba, Curitiba - PR, 81280-180</t>
+  </si>
+  <si>
+    <t>R. Pedro Nabosne, 57 - Alto Boqueirão, Curitiba - PR, 81850-425</t>
+  </si>
+  <si>
+    <t>R. Ourizona, 2250 - Sítio Cercado, Curitiba - PR, 81920-620</t>
+  </si>
+  <si>
+    <t>R. Eunice Bettini Bartoszeck, 1287 - Uberaba, Curitiba - PR, 81590-180</t>
+  </si>
+  <si>
+    <t>Av. Jaime Reis, 331 - Alto do São Francisco, Curitiba - PR, 80510-010</t>
+  </si>
+  <si>
+    <t>R. Prof. Júlio Teodorico Guimarães, 337 - Pinheirinho, Curitiba - PR, 81825-150</t>
+  </si>
+  <si>
+    <t>Rua Dr. Domicio Costa, 52 - Xaxim, Curitiba - PR, 81720-450</t>
+  </si>
+  <si>
+    <t>Rua Olívio José Rossetti, 538 - Tatuquara, Curitiba - PR, 81470-270</t>
+  </si>
+  <si>
+    <t>Rua Cezinando Dias Parede, 1096 - Boqueirão, Curitiba - PR, 81730-090</t>
+  </si>
+  <si>
+    <t>R. Jovenilson Américo de Oliveira, 240 - Tatuquara, Curitiba - PR, 81070-410</t>
+  </si>
+  <si>
+    <t>R. Adriana Ceres Zago Bueno, 1350 - Tatuquara, Curitiba - PR, 81470-030</t>
+  </si>
+  <si>
+    <t>R. Emídio Nonato da Silva, 45 - Cidade Industrial de Curitiba, Curitiba - PR, 81305-700</t>
+  </si>
+  <si>
+    <t>Av. Ver. Toaldo Túlio, 4577 - Orleans, Curitiba - PR, 82310-385</t>
+  </si>
+  <si>
+    <t>R. Miguel Rossetim, 100 - Vila Osternack, Curitiba - PR, 81935-482</t>
+  </si>
+  <si>
+    <t>R. Pedro Gusso, 3749 - Cidade Industrial de Curitiba, Curitiba - PR, 81170-430</t>
+  </si>
+  <si>
+    <t>Rua 24 de Maio - Centro, Curitiba</t>
+  </si>
+  <si>
+    <t>Rua João Batista Burbello, 12 - Tatuquara, Curitiba - PR, 81940-160</t>
+  </si>
+  <si>
+    <t>Rua Maria Marques de Camargo, 119 - Alto Boqueirão, Curitiba - PR, 80050-540</t>
+  </si>
+  <si>
+    <t>Rua João Eloy de Souza, 111 - Sítio Cercado, Curitiba - PR, 81910-690</t>
+  </si>
+  <si>
+    <t>R. Sergipe, 59 - Guaíra, Curitiba - PR, 80630-080</t>
+  </si>
+  <si>
+    <t>R. Laudelino Ferreira Lopes, 1801 - Capão Raso, Curitiba - PR, 81130-310</t>
+  </si>
+  <si>
+    <t>R. Amauri Lange Silvério, 1251 - Pilarzinho, Curitiba - PR, 82120-000</t>
+  </si>
+  <si>
+    <t>Rua Joanna Emma Dalpozzo Zardo, 370 - Santa Felicidade, Curitiba - PR, 81540-160</t>
+  </si>
+  <si>
+    <t>Rua João Batista Bettega Júnior, 125 - Tatuquara, Curitiba - PR, 81480-040</t>
+  </si>
+  <si>
+    <t>Rua Fanny Bertoldi, 170 - Campo de Santana, Curitiba - PR, 81490-510</t>
+  </si>
+  <si>
+    <t>Rua Pedro Andretta, 3030 - Cidade Industrial de Curitiba, Curitiba - PR, 81540-160</t>
+  </si>
+  <si>
+    <t>Av. Sen. Salgado Filho, 5265 - Uberaba, Curitiba - PR, 81580-000</t>
+  </si>
+  <si>
+    <t>R. Celeste Tortato Gabardo, 1712 - Sítio Cercado, Curitiba - PR, 81900-440</t>
+  </si>
+  <si>
+    <t>R. Roberto Dala Barba, 44 - Ganchinho, Curitiba - PR, 81935-291</t>
+  </si>
+  <si>
+    <t>R. Berta Klemtz, 215 - Fazendinha, Curitiba - PR, 81330-380</t>
+  </si>
+  <si>
+    <t>Av. Paraná, 5050 - Santa Cândida, Curitiba - PR, 82620-360</t>
+  </si>
+  <si>
+    <t>R. Voltaire, 139 - Barreirinha, Curitiba - PR, 82700-200</t>
+  </si>
+  <si>
+    <t>R. Via Veneto, 10 - Santa Felicidade, Curitiba - PR, 81020-490</t>
+  </si>
+  <si>
+    <t>R. Bocaiúva, 310 - Santa Quiteria, Curitiba - PR, 80310-140</t>
+  </si>
+  <si>
+    <t>Rua da Divina Providência, 1445 - Santa Quiteria, Curitiba - PR, 80310-010</t>
+  </si>
+  <si>
+    <t>R. Nelson Ferreira da Luz, 145 - Campo Comprido, Curitiba - PR, 81220-130</t>
+  </si>
+  <si>
+    <t>Rua Antônio Escorsin, 1960 - São Braz, Curitiba - PR, 81020-430</t>
+  </si>
+  <si>
+    <t>R. Ladislau Mikosz, 133 - Cajuru, Curitiba - PR, 82970-170</t>
+  </si>
+  <si>
+    <t>R. Realeza, 259 - Sítio Cercado, Curitiba - PR, 81900-100</t>
+  </si>
+  <si>
+    <t>R. Piraí do Sul, 280 - Administração Regional da Cidade Industrial de Curitiba, Curitiba - PR, 81265-100</t>
+  </si>
+  <si>
+    <t>R. Des. Cid Campelo, 8046 - Cidade Industrial de Curitiba, Curitiba - PR, 81250-510</t>
+  </si>
+  <si>
+    <t>R. Canal Belém - Marginal Leste, 6427 - Uberaba, Curitiba - PR, 81570-200</t>
+  </si>
+  <si>
+    <t>Rua Bernardo Mann, 131 - Xaxim, Curitiba - PR, 81820-380</t>
+  </si>
+  <si>
+    <t>R. Isaías Ferreira da Silva, 150 - Solitude, Curitiba - PR, 82980-200</t>
+  </si>
+  <si>
+    <t>R. Gastão Natal Simone, 05 - Cidade Industrial de Curitiba, Curitiba - PR, 81170-762</t>
+  </si>
+  <si>
+    <t>R. Profa. Hilda Hanke Gonçalves, 435 - Cidade Industrial de Curitiba, Curitiba - PR, 81240-110</t>
+  </si>
+  <si>
+    <t>R. André Ferreira Camargo, 188 - Boqueirão, Curitiba - PR, 81630-160</t>
+  </si>
+  <si>
+    <t>R. José Veríssimo, 1352 - Bairro Alto, Curitiba - PR, 82820-000</t>
+  </si>
+  <si>
+    <t>R. Nicolau Salomão, 671 - Tingui, Curitiba - PR, 82620-130</t>
+  </si>
+  <si>
+    <t>Rua Sebastião Marcos Luiz, 1197 - Cajuru, Curitiba - PR, 82930-060</t>
+  </si>
+  <si>
+    <t>R. Roraima, 1790 - Vila Oficinas, Curitiba - PR, 82930-000</t>
+  </si>
+  <si>
+    <t>R. Cap. Leônidas Marques, 1392 - Uberaba, Curitiba - PR, 81550-130</t>
+  </si>
+  <si>
+    <t>R. Estanislau Selenko, 365 - Umbará, Curitiba - PR, 81940-230</t>
+  </si>
+  <si>
+    <t>R. Dep. Pinheiro Júnior, 915 - Umbará, Curitiba - PR, 81930-000</t>
+  </si>
+  <si>
+    <t>R. Frederico Escorsin, 314 - São Braz, Curitiba - PR, 82310-210</t>
+  </si>
+  <si>
+    <t>Rua Eloy de Assis Fabris, 634 - Novo Mundo, Curitiba - PR, 81030-420</t>
+  </si>
+  <si>
+    <t>Rua René Descartes, 537 - Abranches, Curitiba - PR, 82220-070</t>
+  </si>
+  <si>
+    <t>R. Cataratas do Iguaçu, 192 - Atuba, Curitiba - PR, 82860-060</t>
+  </si>
+  <si>
+    <t>R. Pedro Gusso, 866 - Novo Mundo, Curitiba - PR, 81050-200</t>
+  </si>
+  <si>
+    <t>R. São Paulo, 1495 - Guaíra, Curitiba - PR, 80630-150</t>
+  </si>
+  <si>
+    <t>R. Waldemar Kost, 650 - Hauer, Curitiba - PR, 81610-100</t>
+  </si>
+  <si>
+    <t>R. Primo Lourenço Tosin, 21 - Novo Mundo, Curitiba - PR, 81050-290</t>
+  </si>
+  <si>
+    <t>Av. Anita Garibaldi, 6814 - Cachoeira, Curitiba - PR, 81540-160</t>
+  </si>
+  <si>
+    <t>R. Laudelino Ferreira Lopes, 2959 - Pinheirinho, Curitiba - PR, 81150-100</t>
+  </si>
+  <si>
+    <t>R. Araranguá, 189 - Cidade Industrial de Curitiba, Curitiba - PR, 81230-090</t>
+  </si>
+  <si>
+    <t>R. Emílio Romani, 2684 - Cidade Industrial de Curitiba, Curitiba - PR, 81460-020</t>
+  </si>
+  <si>
+    <t>R. Dr. Bley Zornig, 3136 - Boqueirão, Curitiba - PR, 81750-430</t>
+  </si>
+  <si>
+    <t>Rua Miguel de Lazzari, 51/55 - 51/55 - Pilarzinho, Curitiba - PR, 82110-090</t>
+  </si>
+  <si>
+    <t>R. Paul Garfunkel, 2000 - Cidade Industrial de Curitiba, Curitiba - PR, 81460-040</t>
+  </si>
+  <si>
+    <t>Rua Romeu Bach, 80 - Boqueirão, Curitiba - PR, 81650-140</t>
+  </si>
+  <si>
+    <t>R. Elbe de Macedo, 100 - Sítio Cercado, Curitiba - PR, 81900-720</t>
+  </si>
+  <si>
+    <t>R. Batista da Costa, 1163 - Xaxim, Curitiba - PR, 81810-190</t>
+  </si>
+  <si>
+    <t>Av. Paraná, 3654 - Bacacheri, Curitiba - PR, 82510-000</t>
+  </si>
+  <si>
+    <t>Rua Professora Maria de Assumpção, 2590 - Boqueirão, Curitiba - PR, 81670-040</t>
+  </si>
+  <si>
+    <t>R. Eng. Benedito Mario da Silva, 555 - Cajuru, Curitiba - PR, 82970-000</t>
+  </si>
+  <si>
+    <t>Rua Monsenhor Ivo Zanlorenzi, 3495 - Campo Comprido, Curitiba - PR, 81210-000</t>
+  </si>
+  <si>
+    <t>Rua Senador Accioly Filho, 3370 - Cidade Industrial de Curitiba, Curitiba - PR, 81350-200</t>
+  </si>
+  <si>
+    <t>R. Carlos Klemtz, 1883 - Fazendinha, Curitiba - PR, 81020-430</t>
+  </si>
+  <si>
+    <t>Rua Leon Nícolas, 2081 - Capão Raso, Curitiba - PR, 81150-140</t>
+  </si>
+  <si>
+    <t>Rua Dr. Levy Buquera, 700 - Sítio Cercado, Curitiba - PR, 81910-190</t>
+  </si>
+  <si>
+    <t>R. Jorn. Emílio Zolá Florenzano, 835 - Tatuquara, Curitiba - PR, 81470-300</t>
+  </si>
+  <si>
+    <t>Curitiba</t>
+  </si>
+  <si>
+    <t>Curitiba - CAPS BAIRRO NOVO</t>
+  </si>
+  <si>
+    <t>Curitiba - CAPS BOA VISTA</t>
+  </si>
+  <si>
+    <t>Curitiba - CAPS BOQUEIRO</t>
+  </si>
+  <si>
+    <t>Curitiba - CAPS CIC</t>
+  </si>
+  <si>
+    <t>Curitiba - CAPS CAJURU</t>
+  </si>
+  <si>
+    <t>Curitiba - CAPS INFANTIL BOA VISTA</t>
+  </si>
+  <si>
+    <t>Curitiba - CAPS INFANTIL CENTRO VIDA</t>
+  </si>
+  <si>
+    <t>Curitiba - CAPS INFANTIL PINHEIRINHO</t>
+  </si>
+  <si>
+    <t>Curitiba - CAPS MATRIZ</t>
+  </si>
+  <si>
+    <t>Curitiba - CAPS PINHEIRINHO</t>
+  </si>
+  <si>
+    <t>Curitiba - CAPS PORTO</t>
+  </si>
+  <si>
+    <t>Curitiba - CAPS SANTA FELICIDADE</t>
+  </si>
+  <si>
+    <t>Curitiba - CAPS TATUQUARA</t>
+  </si>
+  <si>
+    <t>Curitiba - Casa Irm„ Dulce - Unidade de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curitiba - CENTRO DE ASSIST NCIA A </t>
+  </si>
+  <si>
+    <t>Curitiba - CENTRO DE EPIDEMIOLOGIA</t>
+  </si>
+  <si>
+    <t>Curitiba - Centro de Especialidades Salgado</t>
+  </si>
+  <si>
+    <t>Curitiba - CENTRO DE SA⁄DE AMBIENTAL</t>
+  </si>
+  <si>
+    <t>Curitiba - CEO ROSARIO</t>
+  </si>
+  <si>
+    <t>Curitiba - CEO SYLVIO GEVAERD</t>
+  </si>
+  <si>
+    <t>Curitiba - DS BAIRRO NOVO</t>
+  </si>
+  <si>
+    <t>Curitiba - DS BOA VISTA</t>
+  </si>
+  <si>
+    <t>Curitiba - DS BOQUEIRO</t>
+  </si>
+  <si>
+    <t>Curitiba - DS CAJUR⁄</t>
+  </si>
+  <si>
+    <t>Curitiba - DS CIC</t>
+  </si>
+  <si>
+    <t>Curitiba - DS MATRIZ</t>
+  </si>
+  <si>
+    <t>Curitiba - DS PINHEIRINHO</t>
+  </si>
+  <si>
+    <t>Curitiba - DS PORTO</t>
+  </si>
+  <si>
+    <t>Curitiba - DS SANTA FELICIDADE</t>
+  </si>
+  <si>
+    <t>Curitiba - DS TATUQUARA</t>
+  </si>
+  <si>
+    <t>Curitiba - HNSG - Maternidade Mater Dei</t>
+  </si>
+  <si>
+    <t>Curitiba - HOSPITAL DE CLINÕCAS</t>
+  </si>
+  <si>
+    <t>Curitiba - HOSPITAL DO TRABALHADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curitiba - HOSPITAL E MATERNIDADE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curitiba - HOSPITAL NOSSA SRA. DAS </t>
+  </si>
+  <si>
+    <t>Curitiba - Hospital Oswaldo Cruz</t>
+  </si>
+  <si>
+    <t>Curitiba - Instituto Presbiteriano Mackenzie -</t>
+  </si>
+  <si>
+    <t>Curitiba - LABORAT”RIO MUNICIPAL</t>
+  </si>
+  <si>
+    <t>Curitiba - PEQUENO COTOLENGO DO</t>
+  </si>
+  <si>
+    <t>Curitiba - RT JARDIM GABINETO</t>
+  </si>
+  <si>
+    <t>Curitiba - RT JARDIM PARANAENSE</t>
+  </si>
+  <si>
+    <t>Curitiba - RT TARUM I</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS ABAETE</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS ABRANCHES</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS ALVORADA PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS AMIGO ESPECIAL</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS ATENAS</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS ATUBA</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS AUGUSTA PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS AURORA</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS BACACHERI</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS BAIRRO ALTO PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS BAIRRO NOVO PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS BARIGUI PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS BARREIRINHA</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS BOM PASTOR PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS BUTIATUVINHA PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS CAIUA PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS CAJURU</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS CAMARGO PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS CAMPINA DO SIQUEIRA</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS CAMPO ALEGRE</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS CANDIDO PORTINARI PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS CAPANEMA PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS CAXIMBA PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS COA CENTRO DE</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS CONCORDIA PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS COQUEIROS PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS DOM BOSCO PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS ERICO VERISSIMO PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS ESMERALDA</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS ESTRELA PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS EUCALIPTOS</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS FANNY LINDOIA</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS FERNANDO DE NORONHA</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS IPIRANGA</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS IRACEMA</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS IRMA TEREZA ARAUJO</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS JARDIM ALIAN«A</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS JARDIM GABINETO PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS JARDIM PARANAENSE PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS JOAO CANDIDO PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS LOTIGUACU PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS MAE CURITIBANA PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS MARIA ANGELICA PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS MENONITAS</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS MONTEIRO LOBATO PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS MORADIAS BELEM PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS MORADIAS DA ORDEM</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS MORADIAS SANTA RITA</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS NOSSA SENHORA DA LUZ</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS NOVA ORLEANS</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS OSTERNACK PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS OSWALDO CRUZ PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS OUVIDOR PARDINHO PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS PALMEIRAS PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS PANTANAL PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS PARIGOT DE SOUZA PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS PAROLIN PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS PARQUE INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS PILARZINHO</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS PINHEIROS PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS POMPEIA PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS RIO BONITO PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS SABARA PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS SALGADO FILHO</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS SALVADOR ALLENDE PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS SAMBAQUI PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS SANTA AMELIA</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS SANTA CANDIDA</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS SANTA EFIGENIA</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS SANTA FELICIDADE</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS SANTA QUITERIA II</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS SANTA QUITERIA PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS SANTOS ANDRADE PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS SAO BRAZ</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS SAO DOMINGOS PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS SAO JOAO DEL REY PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS SAO JOSE PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS SAO MIGUEL</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS SAO PAULO PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS SAO PEDRO</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS SOLITUDE PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS TAIZ VIVIANE MACHADO</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS TANCREDO NEVES</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS TAPAJOS</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS TARUMA PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS TINGUI</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS TRINDADE II PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS TRINDADE PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS UBERABA DE CIMA</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS UMBARA II PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS UMBARA PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS UNIAO DAS VILAS</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS VILA CLARICE</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS VILA DIANA</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS VILA ESPERANCA PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS VILA FELIZ</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS VILA GUAIRA</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS VILA HAUER</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS VILA LEAO</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS VILA LEONICE PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS VILA MACHADO</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS VILA SANDRA PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS VILA VERDE PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS VISITACAO</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS VISTA ALEGRE</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS VITORIA REGIA PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS WALDEMAR MONASTIER</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS XAPINHAL PSF</t>
+  </si>
+  <si>
+    <t>Curitiba - UMS XAXIM</t>
+  </si>
+  <si>
+    <t>Curitiba - UPA BOA VISTA</t>
+  </si>
+  <si>
+    <t>Curitiba - UPA BOQUEIRAO</t>
+  </si>
+  <si>
+    <t>Curitiba - UPA CAJURU</t>
+  </si>
+  <si>
+    <t>Curitiba - UPA CAMPO COMPRIDO</t>
+  </si>
+  <si>
+    <t>Curitiba - UPA CIDADE INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>Curitiba - UPA FAZENDINHA</t>
+  </si>
+  <si>
+    <t>Curitiba - UPA PINHEIRINHO</t>
+  </si>
+  <si>
+    <t>Curitiba - UPA SITIO CERCADO</t>
+  </si>
+  <si>
+    <t>Curitiba - UPA Tatuquara</t>
   </si>
 </sst>
 </file>
@@ -1063,19 +2008,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:P248"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA115" sqref="AA115"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D241" sqref="D241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" customWidth="1"/>
     <col min="4" max="4" width="76.42578125" customWidth="1"/>
-    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="5" max="5" width="96.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="25.28515625" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
@@ -5490,6 +6435,8006 @@
         <v>-49.2189774</v>
       </c>
     </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" s="5">
+        <v>1</v>
+      </c>
+      <c r="H89" s="5">
+        <v>4</v>
+      </c>
+      <c r="I89" s="5">
+        <v>80</v>
+      </c>
+      <c r="J89" s="5">
+        <v>90</v>
+      </c>
+      <c r="K89" s="5">
+        <v>25</v>
+      </c>
+      <c r="L89" s="6">
+        <v>6</v>
+      </c>
+      <c r="M89" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N89" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O89" s="7">
+        <v>-25.5277934</v>
+      </c>
+      <c r="P89" s="7">
+        <v>-49.291825799999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="5">
+        <v>1</v>
+      </c>
+      <c r="H90" s="5">
+        <v>4</v>
+      </c>
+      <c r="I90" s="5">
+        <v>80</v>
+      </c>
+      <c r="J90" s="5">
+        <v>90</v>
+      </c>
+      <c r="K90" s="5">
+        <v>25</v>
+      </c>
+      <c r="L90" s="6">
+        <v>6</v>
+      </c>
+      <c r="M90" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N90" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O90" s="8">
+        <v>-25.396292299999999</v>
+      </c>
+      <c r="P90" s="8">
+        <v>-49.249860699999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="5">
+        <v>1</v>
+      </c>
+      <c r="H91" s="5">
+        <v>4</v>
+      </c>
+      <c r="I91" s="5">
+        <v>80</v>
+      </c>
+      <c r="J91" s="5">
+        <v>90</v>
+      </c>
+      <c r="K91" s="5">
+        <v>25</v>
+      </c>
+      <c r="L91" s="6">
+        <v>6</v>
+      </c>
+      <c r="M91" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N91" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O91" s="7">
+        <v>-25.501682899999999</v>
+      </c>
+      <c r="P91" s="7">
+        <v>-49.233414400000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="5">
+        <v>1</v>
+      </c>
+      <c r="H92" s="5">
+        <v>4</v>
+      </c>
+      <c r="I92" s="5">
+        <v>80</v>
+      </c>
+      <c r="J92" s="5">
+        <v>90</v>
+      </c>
+      <c r="K92" s="5">
+        <v>25</v>
+      </c>
+      <c r="L92" s="6">
+        <v>6</v>
+      </c>
+      <c r="M92" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N92" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O92" s="8">
+        <v>-25.411603800000002</v>
+      </c>
+      <c r="P92" s="8">
+        <v>-49.2090551</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="5">
+        <v>1</v>
+      </c>
+      <c r="H93" s="5">
+        <v>4</v>
+      </c>
+      <c r="I93" s="5">
+        <v>80</v>
+      </c>
+      <c r="J93" s="5">
+        <v>90</v>
+      </c>
+      <c r="K93" s="5">
+        <v>25</v>
+      </c>
+      <c r="L93" s="6">
+        <v>6</v>
+      </c>
+      <c r="M93" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N93" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O93" s="7">
+        <v>-25.453772799999999</v>
+      </c>
+      <c r="P93" s="7">
+        <v>-49.3707292</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="5">
+        <v>1</v>
+      </c>
+      <c r="H94" s="5">
+        <v>4</v>
+      </c>
+      <c r="I94" s="5">
+        <v>80</v>
+      </c>
+      <c r="J94" s="5">
+        <v>90</v>
+      </c>
+      <c r="K94" s="5">
+        <v>25</v>
+      </c>
+      <c r="L94" s="6">
+        <v>6</v>
+      </c>
+      <c r="M94" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N94" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O94" s="7">
+        <v>-25.3934563</v>
+      </c>
+      <c r="P94" s="7">
+        <v>-49.2483796</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="5">
+        <v>1</v>
+      </c>
+      <c r="H95" s="5">
+        <v>4</v>
+      </c>
+      <c r="I95" s="5">
+        <v>80</v>
+      </c>
+      <c r="J95" s="5">
+        <v>90</v>
+      </c>
+      <c r="K95" s="5">
+        <v>25</v>
+      </c>
+      <c r="L95" s="6">
+        <v>6</v>
+      </c>
+      <c r="M95" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N95" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O95" s="7">
+        <v>-25.448198300000001</v>
+      </c>
+      <c r="P95" s="7">
+        <v>-49.296027600000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="5">
+        <v>1</v>
+      </c>
+      <c r="H96" s="5">
+        <v>4</v>
+      </c>
+      <c r="I96" s="5">
+        <v>80</v>
+      </c>
+      <c r="J96" s="5">
+        <v>90</v>
+      </c>
+      <c r="K96" s="5">
+        <v>25</v>
+      </c>
+      <c r="L96" s="6">
+        <v>6</v>
+      </c>
+      <c r="M96" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N96" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O96" s="7">
+        <v>-25.5205026</v>
+      </c>
+      <c r="P96" s="7">
+        <v>-49.305762700000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="5">
+        <v>1</v>
+      </c>
+      <c r="H97" s="5">
+        <v>4</v>
+      </c>
+      <c r="I97" s="5">
+        <v>80</v>
+      </c>
+      <c r="J97" s="5">
+        <v>90</v>
+      </c>
+      <c r="K97" s="5">
+        <v>25</v>
+      </c>
+      <c r="L97" s="6">
+        <v>6</v>
+      </c>
+      <c r="M97" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N97" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O97" s="7">
+        <v>-25.387181300000002</v>
+      </c>
+      <c r="P97" s="7">
+        <v>-49.233681500000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="5">
+        <v>1</v>
+      </c>
+      <c r="H98" s="5">
+        <v>4</v>
+      </c>
+      <c r="I98" s="5">
+        <v>80</v>
+      </c>
+      <c r="J98" s="5">
+        <v>90</v>
+      </c>
+      <c r="K98" s="5">
+        <v>25</v>
+      </c>
+      <c r="L98" s="6">
+        <v>6</v>
+      </c>
+      <c r="M98" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N98" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O98" s="7">
+        <v>-25.448385699999999</v>
+      </c>
+      <c r="P98" s="7">
+        <v>-49.294364600000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="5">
+        <v>1</v>
+      </c>
+      <c r="H99" s="5">
+        <v>4</v>
+      </c>
+      <c r="I99" s="5">
+        <v>80</v>
+      </c>
+      <c r="J99" s="5">
+        <v>90</v>
+      </c>
+      <c r="K99" s="5">
+        <v>25</v>
+      </c>
+      <c r="L99" s="6">
+        <v>6</v>
+      </c>
+      <c r="M99" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N99" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O99" s="7">
+        <v>-25.444482600000001</v>
+      </c>
+      <c r="P99" s="7">
+        <v>-49.271788800000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" s="5">
+        <v>1</v>
+      </c>
+      <c r="H100" s="5">
+        <v>4</v>
+      </c>
+      <c r="I100" s="5">
+        <v>80</v>
+      </c>
+      <c r="J100" s="5">
+        <v>90</v>
+      </c>
+      <c r="K100" s="5">
+        <v>25</v>
+      </c>
+      <c r="L100" s="6">
+        <v>6</v>
+      </c>
+      <c r="M100" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N100" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O100" s="7">
+        <v>-25.4349825</v>
+      </c>
+      <c r="P100" s="7">
+        <v>-49.299228300000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="5">
+        <v>1</v>
+      </c>
+      <c r="H101" s="5">
+        <v>4</v>
+      </c>
+      <c r="I101" s="5">
+        <v>80</v>
+      </c>
+      <c r="J101" s="5">
+        <v>90</v>
+      </c>
+      <c r="K101" s="5">
+        <v>25</v>
+      </c>
+      <c r="L101" s="6">
+        <v>6</v>
+      </c>
+      <c r="M101" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N101" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O101" s="7">
+        <v>-25.5768673</v>
+      </c>
+      <c r="P101" s="7">
+        <v>-49.359753400000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" s="5">
+        <v>1</v>
+      </c>
+      <c r="H102" s="5">
+        <v>4</v>
+      </c>
+      <c r="I102" s="5">
+        <v>80</v>
+      </c>
+      <c r="J102" s="5">
+        <v>90</v>
+      </c>
+      <c r="K102" s="5">
+        <v>25</v>
+      </c>
+      <c r="L102" s="6">
+        <v>6</v>
+      </c>
+      <c r="M102" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N102" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O102" s="7">
+        <v>-25.571531100000001</v>
+      </c>
+      <c r="P102" s="7">
+        <v>-49.367827699999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="5">
+        <v>1</v>
+      </c>
+      <c r="H103" s="5">
+        <v>4</v>
+      </c>
+      <c r="I103" s="5">
+        <v>80</v>
+      </c>
+      <c r="J103" s="5">
+        <v>90</v>
+      </c>
+      <c r="K103" s="5">
+        <v>25</v>
+      </c>
+      <c r="L103" s="6">
+        <v>6</v>
+      </c>
+      <c r="M103" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N103" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O103" s="7">
+        <v>-25.428610800000001</v>
+      </c>
+      <c r="P103" s="7">
+        <v>-49.260972700000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="5">
+        <v>1</v>
+      </c>
+      <c r="H104" s="5">
+        <v>4</v>
+      </c>
+      <c r="I104" s="5">
+        <v>80</v>
+      </c>
+      <c r="J104" s="5">
+        <v>90</v>
+      </c>
+      <c r="K104" s="5">
+        <v>25</v>
+      </c>
+      <c r="L104" s="6">
+        <v>6</v>
+      </c>
+      <c r="M104" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N104" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O104" s="7">
+        <v>-25.428610800000001</v>
+      </c>
+      <c r="P104" s="7">
+        <v>-49.260972700000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="5">
+        <v>1</v>
+      </c>
+      <c r="H105" s="5">
+        <v>4</v>
+      </c>
+      <c r="I105" s="5">
+        <v>80</v>
+      </c>
+      <c r="J105" s="5">
+        <v>90</v>
+      </c>
+      <c r="K105" s="5">
+        <v>25</v>
+      </c>
+      <c r="L105" s="6">
+        <v>6</v>
+      </c>
+      <c r="M105" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N105" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O105" s="7">
+        <v>-25.494898800000001</v>
+      </c>
+      <c r="P105" s="7">
+        <v>-49.226573399999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="5">
+        <v>1</v>
+      </c>
+      <c r="H106" s="5">
+        <v>4</v>
+      </c>
+      <c r="I106" s="5">
+        <v>80</v>
+      </c>
+      <c r="J106" s="5">
+        <v>90</v>
+      </c>
+      <c r="K106" s="5">
+        <v>25</v>
+      </c>
+      <c r="L106" s="6">
+        <v>6</v>
+      </c>
+      <c r="M106" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N106" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O106" s="7">
+        <v>-25.428610800000001</v>
+      </c>
+      <c r="P106" s="7">
+        <v>-49.260972700000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="5">
+        <v>1</v>
+      </c>
+      <c r="H107" s="5">
+        <v>4</v>
+      </c>
+      <c r="I107" s="5">
+        <v>80</v>
+      </c>
+      <c r="J107" s="5">
+        <v>90</v>
+      </c>
+      <c r="K107" s="5">
+        <v>25</v>
+      </c>
+      <c r="L107" s="6">
+        <v>6</v>
+      </c>
+      <c r="M107" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N107" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O107" s="7">
+        <v>-25.426027999999999</v>
+      </c>
+      <c r="P107" s="7">
+        <v>-49.272618399999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" s="5">
+        <v>1</v>
+      </c>
+      <c r="H108" s="5">
+        <v>4</v>
+      </c>
+      <c r="I108" s="5">
+        <v>80</v>
+      </c>
+      <c r="J108" s="5">
+        <v>90</v>
+      </c>
+      <c r="K108" s="5">
+        <v>25</v>
+      </c>
+      <c r="L108" s="6">
+        <v>6</v>
+      </c>
+      <c r="M108" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N108" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O108" s="7">
+        <v>-25.463152600000001</v>
+      </c>
+      <c r="P108" s="7">
+        <v>-49.308216600000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" s="5">
+        <v>1</v>
+      </c>
+      <c r="H109" s="5">
+        <v>4</v>
+      </c>
+      <c r="I109" s="5">
+        <v>80</v>
+      </c>
+      <c r="J109" s="5">
+        <v>90</v>
+      </c>
+      <c r="K109" s="5">
+        <v>25</v>
+      </c>
+      <c r="L109" s="6">
+        <v>6</v>
+      </c>
+      <c r="M109" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N109" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O109" s="7">
+        <v>-25.543139400000001</v>
+      </c>
+      <c r="P109" s="7">
+        <v>-49.228620100000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" s="5">
+        <v>1</v>
+      </c>
+      <c r="H110" s="5">
+        <v>4</v>
+      </c>
+      <c r="I110" s="5">
+        <v>80</v>
+      </c>
+      <c r="J110" s="5">
+        <v>90</v>
+      </c>
+      <c r="K110" s="5">
+        <v>25</v>
+      </c>
+      <c r="L110" s="6">
+        <v>6</v>
+      </c>
+      <c r="M110" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N110" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O110" s="7">
+        <v>-25.3850804</v>
+      </c>
+      <c r="P110" s="7">
+        <v>-49.295403800000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="5">
+        <v>1</v>
+      </c>
+      <c r="H111" s="5">
+        <v>4</v>
+      </c>
+      <c r="I111" s="5">
+        <v>80</v>
+      </c>
+      <c r="J111" s="5">
+        <v>90</v>
+      </c>
+      <c r="K111" s="5">
+        <v>25</v>
+      </c>
+      <c r="L111" s="6">
+        <v>6</v>
+      </c>
+      <c r="M111" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N111" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O111" s="7">
+        <v>-25.502616400000001</v>
+      </c>
+      <c r="P111" s="7">
+        <v>-49.261860300000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="5">
+        <v>1</v>
+      </c>
+      <c r="H112" s="5">
+        <v>4</v>
+      </c>
+      <c r="I112" s="5">
+        <v>80</v>
+      </c>
+      <c r="J112" s="5">
+        <v>90</v>
+      </c>
+      <c r="K112" s="5">
+        <v>25</v>
+      </c>
+      <c r="L112" s="6">
+        <v>6</v>
+      </c>
+      <c r="M112" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N112" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O112" s="7">
+        <v>-25.460016899999999</v>
+      </c>
+      <c r="P112" s="7">
+        <v>-49.2050427</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="5">
+        <v>1</v>
+      </c>
+      <c r="H113" s="5">
+        <v>4</v>
+      </c>
+      <c r="I113" s="5">
+        <v>80</v>
+      </c>
+      <c r="J113" s="5">
+        <v>90</v>
+      </c>
+      <c r="K113" s="5">
+        <v>25</v>
+      </c>
+      <c r="L113" s="6">
+        <v>6</v>
+      </c>
+      <c r="M113" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N113" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O113" s="7">
+        <v>-25.527426699999999</v>
+      </c>
+      <c r="P113" s="7">
+        <v>-49.356090899999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="5">
+        <v>1</v>
+      </c>
+      <c r="H114" s="5">
+        <v>4</v>
+      </c>
+      <c r="I114" s="5">
+        <v>80</v>
+      </c>
+      <c r="J114" s="5">
+        <v>90</v>
+      </c>
+      <c r="K114" s="5">
+        <v>25</v>
+      </c>
+      <c r="L114" s="6">
+        <v>6</v>
+      </c>
+      <c r="M114" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N114" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O114" s="7">
+        <v>-25.441504900000002</v>
+      </c>
+      <c r="P114" s="7">
+        <v>-49.291259500000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" s="5">
+        <v>1</v>
+      </c>
+      <c r="H115" s="5">
+        <v>4</v>
+      </c>
+      <c r="I115" s="5">
+        <v>80</v>
+      </c>
+      <c r="J115" s="5">
+        <v>90</v>
+      </c>
+      <c r="K115" s="5">
+        <v>25</v>
+      </c>
+      <c r="L115" s="6">
+        <v>6</v>
+      </c>
+      <c r="M115" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N115" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O115" s="7">
+        <v>-25.535632499999998</v>
+      </c>
+      <c r="P115" s="7">
+        <v>-49.300083100000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" s="5">
+        <v>1</v>
+      </c>
+      <c r="H116" s="5">
+        <v>4</v>
+      </c>
+      <c r="I116" s="5">
+        <v>80</v>
+      </c>
+      <c r="J116" s="5">
+        <v>90</v>
+      </c>
+      <c r="K116" s="5">
+        <v>25</v>
+      </c>
+      <c r="L116" s="6">
+        <v>6</v>
+      </c>
+      <c r="M116" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N116" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O116" s="7">
+        <v>-25.506352199999998</v>
+      </c>
+      <c r="P116" s="7">
+        <v>-49.315564799999997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" s="5">
+        <v>1</v>
+      </c>
+      <c r="H117" s="5">
+        <v>4</v>
+      </c>
+      <c r="I117" s="5">
+        <v>80</v>
+      </c>
+      <c r="J117" s="5">
+        <v>90</v>
+      </c>
+      <c r="K117" s="5">
+        <v>25</v>
+      </c>
+      <c r="L117" s="6">
+        <v>6</v>
+      </c>
+      <c r="M117" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N117" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O117" s="7">
+        <v>-25.392048500000001</v>
+      </c>
+      <c r="P117" s="7">
+        <v>-49.335777299999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" s="5">
+        <v>1</v>
+      </c>
+      <c r="H118" s="5">
+        <v>4</v>
+      </c>
+      <c r="I118" s="5">
+        <v>80</v>
+      </c>
+      <c r="J118" s="5">
+        <v>90</v>
+      </c>
+      <c r="K118" s="5">
+        <v>25</v>
+      </c>
+      <c r="L118" s="6">
+        <v>6</v>
+      </c>
+      <c r="M118" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N118" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O118" s="7">
+        <v>-25.5826949</v>
+      </c>
+      <c r="P118" s="7">
+        <v>-49.364915099999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" s="5">
+        <v>1</v>
+      </c>
+      <c r="H119" s="5">
+        <v>4</v>
+      </c>
+      <c r="I119" s="5">
+        <v>80</v>
+      </c>
+      <c r="J119" s="5">
+        <v>90</v>
+      </c>
+      <c r="K119" s="5">
+        <v>25</v>
+      </c>
+      <c r="L119" s="6">
+        <v>6</v>
+      </c>
+      <c r="M119" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N119" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O119" s="7">
+        <v>-25.430716700000001</v>
+      </c>
+      <c r="P119" s="7">
+        <v>-49.267242199999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" s="5">
+        <v>1</v>
+      </c>
+      <c r="H120" s="5">
+        <v>4</v>
+      </c>
+      <c r="I120" s="5">
+        <v>80</v>
+      </c>
+      <c r="J120" s="5">
+        <v>90</v>
+      </c>
+      <c r="K120" s="5">
+        <v>25</v>
+      </c>
+      <c r="L120" s="6">
+        <v>6</v>
+      </c>
+      <c r="M120" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N120" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O120" s="7">
+        <v>-25.422936100000001</v>
+      </c>
+      <c r="P120" s="7">
+        <v>-49.264279500000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" s="5">
+        <v>1</v>
+      </c>
+      <c r="H121" s="5">
+        <v>4</v>
+      </c>
+      <c r="I121" s="5">
+        <v>80</v>
+      </c>
+      <c r="J121" s="5">
+        <v>90</v>
+      </c>
+      <c r="K121" s="5">
+        <v>25</v>
+      </c>
+      <c r="L121" s="6">
+        <v>6</v>
+      </c>
+      <c r="M121" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N121" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O121" s="7">
+        <v>-25.509824500000001</v>
+      </c>
+      <c r="P121" s="7">
+        <v>-49.300232800000003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="5">
+        <v>1</v>
+      </c>
+      <c r="H122" s="5">
+        <v>4</v>
+      </c>
+      <c r="I122" s="5">
+        <v>80</v>
+      </c>
+      <c r="J122" s="5">
+        <v>90</v>
+      </c>
+      <c r="K122" s="5">
+        <v>25</v>
+      </c>
+      <c r="L122" s="6">
+        <v>6</v>
+      </c>
+      <c r="M122" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N122" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O122" s="7">
+        <v>-25.481988699999999</v>
+      </c>
+      <c r="P122" s="7">
+        <v>-49.293805399999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" s="5">
+        <v>1</v>
+      </c>
+      <c r="H123" s="5">
+        <v>4</v>
+      </c>
+      <c r="I123" s="5">
+        <v>80</v>
+      </c>
+      <c r="J123" s="5">
+        <v>90</v>
+      </c>
+      <c r="K123" s="5">
+        <v>25</v>
+      </c>
+      <c r="L123" s="6">
+        <v>6</v>
+      </c>
+      <c r="M123" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N123" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O123" s="7">
+        <v>-25.481988699999999</v>
+      </c>
+      <c r="P123" s="7">
+        <v>-49.293805399999997</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" s="5">
+        <v>1</v>
+      </c>
+      <c r="H124" s="5">
+        <v>4</v>
+      </c>
+      <c r="I124" s="5">
+        <v>80</v>
+      </c>
+      <c r="J124" s="5">
+        <v>90</v>
+      </c>
+      <c r="K124" s="5">
+        <v>25</v>
+      </c>
+      <c r="L124" s="6">
+        <v>6</v>
+      </c>
+      <c r="M124" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N124" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O124" s="7">
+        <v>-25.418097800000002</v>
+      </c>
+      <c r="P124" s="7">
+        <v>-49.251337700000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" s="5">
+        <v>1</v>
+      </c>
+      <c r="H125" s="5">
+        <v>4</v>
+      </c>
+      <c r="I125" s="5">
+        <v>80</v>
+      </c>
+      <c r="J125" s="5">
+        <v>90</v>
+      </c>
+      <c r="K125" s="5">
+        <v>25</v>
+      </c>
+      <c r="L125" s="6">
+        <v>6</v>
+      </c>
+      <c r="M125" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N125" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O125" s="7">
+        <v>-25.430220200000001</v>
+      </c>
+      <c r="P125" s="7">
+        <v>-49.303034400000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" s="5">
+        <v>1</v>
+      </c>
+      <c r="H126" s="5">
+        <v>4</v>
+      </c>
+      <c r="I126" s="5">
+        <v>80</v>
+      </c>
+      <c r="J126" s="5">
+        <v>90</v>
+      </c>
+      <c r="K126" s="5">
+        <v>25</v>
+      </c>
+      <c r="L126" s="6">
+        <v>6</v>
+      </c>
+      <c r="M126" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N126" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O126" s="7">
+        <v>-25.511571700000001</v>
+      </c>
+      <c r="P126" s="7">
+        <v>-49.307309400000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" s="5">
+        <v>1</v>
+      </c>
+      <c r="H127" s="5">
+        <v>4</v>
+      </c>
+      <c r="I127" s="5">
+        <v>80</v>
+      </c>
+      <c r="J127" s="5">
+        <v>90</v>
+      </c>
+      <c r="K127" s="5">
+        <v>25</v>
+      </c>
+      <c r="L127" s="6">
+        <v>6</v>
+      </c>
+      <c r="M127" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N127" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O127" s="7">
+        <v>-25.4671257</v>
+      </c>
+      <c r="P127" s="7">
+        <v>-49.345024700000003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128" s="5">
+        <v>1</v>
+      </c>
+      <c r="H128" s="5">
+        <v>4</v>
+      </c>
+      <c r="I128" s="5">
+        <v>80</v>
+      </c>
+      <c r="J128" s="5">
+        <v>90</v>
+      </c>
+      <c r="K128" s="5">
+        <v>25</v>
+      </c>
+      <c r="L128" s="6">
+        <v>6</v>
+      </c>
+      <c r="M128" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N128" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O128" s="7">
+        <v>-25.455124699999999</v>
+      </c>
+      <c r="P128" s="7">
+        <v>-49.299509499999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129" s="5">
+        <v>1</v>
+      </c>
+      <c r="H129" s="5">
+        <v>4</v>
+      </c>
+      <c r="I129" s="5">
+        <v>80</v>
+      </c>
+      <c r="J129" s="5">
+        <v>90</v>
+      </c>
+      <c r="K129" s="5">
+        <v>25</v>
+      </c>
+      <c r="L129" s="6">
+        <v>6</v>
+      </c>
+      <c r="M129" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N129" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O129" s="7">
+        <v>-25.455124699999999</v>
+      </c>
+      <c r="P129" s="7">
+        <v>-49.299509499999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" s="5">
+        <v>1</v>
+      </c>
+      <c r="H130" s="5">
+        <v>4</v>
+      </c>
+      <c r="I130" s="5">
+        <v>80</v>
+      </c>
+      <c r="J130" s="5">
+        <v>90</v>
+      </c>
+      <c r="K130" s="5">
+        <v>25</v>
+      </c>
+      <c r="L130" s="6">
+        <v>6</v>
+      </c>
+      <c r="M130" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N130" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O130" s="7">
+        <v>-25.455124699999999</v>
+      </c>
+      <c r="P130" s="7">
+        <v>-49.299509499999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" s="5">
+        <v>1</v>
+      </c>
+      <c r="H131" s="5">
+        <v>4</v>
+      </c>
+      <c r="I131" s="5">
+        <v>80</v>
+      </c>
+      <c r="J131" s="5">
+        <v>90</v>
+      </c>
+      <c r="K131" s="5">
+        <v>25</v>
+      </c>
+      <c r="L131" s="6">
+        <v>6</v>
+      </c>
+      <c r="M131" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N131" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O131" s="7">
+        <v>-25.384304199999999</v>
+      </c>
+      <c r="P131" s="7">
+        <v>-49.240609200000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132" s="5">
+        <v>1</v>
+      </c>
+      <c r="H132" s="5">
+        <v>4</v>
+      </c>
+      <c r="I132" s="5">
+        <v>80</v>
+      </c>
+      <c r="J132" s="5">
+        <v>90</v>
+      </c>
+      <c r="K132" s="5">
+        <v>25</v>
+      </c>
+      <c r="L132" s="6">
+        <v>6</v>
+      </c>
+      <c r="M132" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N132" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O132" s="7">
+        <v>-25.3583034</v>
+      </c>
+      <c r="P132" s="7">
+        <v>-49.295782199999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A133" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" s="5">
+        <v>1</v>
+      </c>
+      <c r="H133" s="5">
+        <v>4</v>
+      </c>
+      <c r="I133" s="5">
+        <v>80</v>
+      </c>
+      <c r="J133" s="5">
+        <v>90</v>
+      </c>
+      <c r="K133" s="5">
+        <v>25</v>
+      </c>
+      <c r="L133" s="6">
+        <v>6</v>
+      </c>
+      <c r="M133" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N133" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O133" s="7">
+        <v>-25.493465700000002</v>
+      </c>
+      <c r="P133" s="7">
+        <v>-49.233838200000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134" s="5">
+        <v>1</v>
+      </c>
+      <c r="H134" s="5">
+        <v>4</v>
+      </c>
+      <c r="I134" s="5">
+        <v>80</v>
+      </c>
+      <c r="J134" s="5">
+        <v>90</v>
+      </c>
+      <c r="K134" s="5">
+        <v>25</v>
+      </c>
+      <c r="L134" s="6">
+        <v>6</v>
+      </c>
+      <c r="M134" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N134" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O134" s="7">
+        <v>-25.426028899999999</v>
+      </c>
+      <c r="P134" s="7">
+        <v>-49.272618399999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" s="5">
+        <v>1</v>
+      </c>
+      <c r="H135" s="5">
+        <v>4</v>
+      </c>
+      <c r="I135" s="5">
+        <v>80</v>
+      </c>
+      <c r="J135" s="5">
+        <v>90</v>
+      </c>
+      <c r="K135" s="5">
+        <v>25</v>
+      </c>
+      <c r="L135" s="6">
+        <v>6</v>
+      </c>
+      <c r="M135" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N135" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O135" s="7">
+        <v>-25.524665599999999</v>
+      </c>
+      <c r="P135" s="7">
+        <v>-49.345788200000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136" s="5">
+        <v>1</v>
+      </c>
+      <c r="H136" s="5">
+        <v>4</v>
+      </c>
+      <c r="I136" s="5">
+        <v>80</v>
+      </c>
+      <c r="J136" s="5">
+        <v>90</v>
+      </c>
+      <c r="K136" s="5">
+        <v>25</v>
+      </c>
+      <c r="L136" s="6">
+        <v>6</v>
+      </c>
+      <c r="M136" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N136" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O136" s="7">
+        <v>-25.372263700000001</v>
+      </c>
+      <c r="P136" s="7">
+        <v>-49.196156500000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A137" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137" s="5">
+        <v>1</v>
+      </c>
+      <c r="H137" s="5">
+        <v>4</v>
+      </c>
+      <c r="I137" s="5">
+        <v>80</v>
+      </c>
+      <c r="J137" s="5">
+        <v>90</v>
+      </c>
+      <c r="K137" s="5">
+        <v>25</v>
+      </c>
+      <c r="L137" s="6">
+        <v>6</v>
+      </c>
+      <c r="M137" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N137" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O137" s="7">
+        <v>-25.518842200000002</v>
+      </c>
+      <c r="P137" s="7">
+        <v>-49.347074200000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A138" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138" s="5">
+        <v>1</v>
+      </c>
+      <c r="H138" s="5">
+        <v>4</v>
+      </c>
+      <c r="I138" s="5">
+        <v>80</v>
+      </c>
+      <c r="J138" s="5">
+        <v>90</v>
+      </c>
+      <c r="K138" s="5">
+        <v>25</v>
+      </c>
+      <c r="L138" s="6">
+        <v>6</v>
+      </c>
+      <c r="M138" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N138" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O138" s="7">
+        <v>-25.5143305</v>
+      </c>
+      <c r="P138" s="7">
+        <v>-49.299826899999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G139" s="5">
+        <v>1</v>
+      </c>
+      <c r="H139" s="5">
+        <v>4</v>
+      </c>
+      <c r="I139" s="5">
+        <v>80</v>
+      </c>
+      <c r="J139" s="5">
+        <v>90</v>
+      </c>
+      <c r="K139" s="5">
+        <v>25</v>
+      </c>
+      <c r="L139" s="6">
+        <v>6</v>
+      </c>
+      <c r="M139" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N139" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O139" s="7">
+        <v>-25.390378900000002</v>
+      </c>
+      <c r="P139" s="7">
+        <v>-49.248285600000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" s="5">
+        <v>1</v>
+      </c>
+      <c r="H140" s="5">
+        <v>4</v>
+      </c>
+      <c r="I140" s="5">
+        <v>80</v>
+      </c>
+      <c r="J140" s="5">
+        <v>90</v>
+      </c>
+      <c r="K140" s="5">
+        <v>25</v>
+      </c>
+      <c r="L140" s="6">
+        <v>6</v>
+      </c>
+      <c r="M140" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N140" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O140" s="7">
+        <v>-25.379876800000002</v>
+      </c>
+      <c r="P140" s="7">
+        <v>-49.203744800000003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141" s="5">
+        <v>1</v>
+      </c>
+      <c r="H141" s="5">
+        <v>4</v>
+      </c>
+      <c r="I141" s="5">
+        <v>80</v>
+      </c>
+      <c r="J141" s="5">
+        <v>90</v>
+      </c>
+      <c r="K141" s="5">
+        <v>25</v>
+      </c>
+      <c r="L141" s="6">
+        <v>6</v>
+      </c>
+      <c r="M141" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N141" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O141" s="7">
+        <v>-25.379876800000002</v>
+      </c>
+      <c r="P141" s="7">
+        <v>-49.203744800000003</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A142" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G142" s="5">
+        <v>1</v>
+      </c>
+      <c r="H142" s="5">
+        <v>4</v>
+      </c>
+      <c r="I142" s="5">
+        <v>80</v>
+      </c>
+      <c r="J142" s="5">
+        <v>90</v>
+      </c>
+      <c r="K142" s="5">
+        <v>25</v>
+      </c>
+      <c r="L142" s="6">
+        <v>6</v>
+      </c>
+      <c r="M142" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N142" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O142" s="7">
+        <v>-25.5307587</v>
+      </c>
+      <c r="P142" s="7">
+        <v>-49.351556500000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A143" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143" s="5">
+        <v>1</v>
+      </c>
+      <c r="H143" s="5">
+        <v>4</v>
+      </c>
+      <c r="I143" s="5">
+        <v>80</v>
+      </c>
+      <c r="J143" s="5">
+        <v>90</v>
+      </c>
+      <c r="K143" s="5">
+        <v>25</v>
+      </c>
+      <c r="L143" s="6">
+        <v>6</v>
+      </c>
+      <c r="M143" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N143" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O143" s="7">
+        <v>-25.349049300000001</v>
+      </c>
+      <c r="P143" s="7">
+        <v>-49.279922900000003</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A144" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G144" s="5">
+        <v>1</v>
+      </c>
+      <c r="H144" s="5">
+        <v>4</v>
+      </c>
+      <c r="I144" s="5">
+        <v>80</v>
+      </c>
+      <c r="J144" s="5">
+        <v>90</v>
+      </c>
+      <c r="K144" s="5">
+        <v>25</v>
+      </c>
+      <c r="L144" s="6">
+        <v>6</v>
+      </c>
+      <c r="M144" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N144" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O144" s="7">
+        <v>-25.405167800000001</v>
+      </c>
+      <c r="P144" s="7">
+        <v>-49.3067584</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A145" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145" s="5">
+        <v>1</v>
+      </c>
+      <c r="H145" s="5">
+        <v>4</v>
+      </c>
+      <c r="I145" s="5">
+        <v>80</v>
+      </c>
+      <c r="J145" s="5">
+        <v>90</v>
+      </c>
+      <c r="K145" s="5">
+        <v>25</v>
+      </c>
+      <c r="L145" s="6">
+        <v>6</v>
+      </c>
+      <c r="M145" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N145" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O145" s="7">
+        <v>-25.370395500000001</v>
+      </c>
+      <c r="P145" s="7">
+        <v>-49.358481500000003</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G146" s="5">
+        <v>1</v>
+      </c>
+      <c r="H146" s="5">
+        <v>4</v>
+      </c>
+      <c r="I146" s="5">
+        <v>80</v>
+      </c>
+      <c r="J146" s="5">
+        <v>90</v>
+      </c>
+      <c r="K146" s="5">
+        <v>25</v>
+      </c>
+      <c r="L146" s="6">
+        <v>6</v>
+      </c>
+      <c r="M146" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N146" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O146" s="7">
+        <v>-25.523011400000001</v>
+      </c>
+      <c r="P146" s="8">
+        <v>-49.340186299999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" s="5">
+        <v>1</v>
+      </c>
+      <c r="H147" s="5">
+        <v>4</v>
+      </c>
+      <c r="I147" s="5">
+        <v>80</v>
+      </c>
+      <c r="J147" s="5">
+        <v>90</v>
+      </c>
+      <c r="K147" s="5">
+        <v>25</v>
+      </c>
+      <c r="L147" s="6">
+        <v>6</v>
+      </c>
+      <c r="M147" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N147" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O147" s="7">
+        <v>-25.444877900000002</v>
+      </c>
+      <c r="P147" s="7">
+        <v>-49.202963799999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A148" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G148" s="5">
+        <v>1</v>
+      </c>
+      <c r="H148" s="5">
+        <v>4</v>
+      </c>
+      <c r="I148" s="5">
+        <v>80</v>
+      </c>
+      <c r="J148" s="5">
+        <v>90</v>
+      </c>
+      <c r="K148" s="5">
+        <v>25</v>
+      </c>
+      <c r="L148" s="6">
+        <v>6</v>
+      </c>
+      <c r="M148" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N148" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O148" s="7">
+        <v>-25.4593819</v>
+      </c>
+      <c r="P148" s="7">
+        <v>-49.2034047</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A149" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G149" s="5">
+        <v>1</v>
+      </c>
+      <c r="H149" s="5">
+        <v>4</v>
+      </c>
+      <c r="I149" s="5">
+        <v>80</v>
+      </c>
+      <c r="J149" s="5">
+        <v>90</v>
+      </c>
+      <c r="K149" s="5">
+        <v>25</v>
+      </c>
+      <c r="L149" s="6">
+        <v>6</v>
+      </c>
+      <c r="M149" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N149" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O149" s="7">
+        <v>-25.431332900000001</v>
+      </c>
+      <c r="P149" s="7">
+        <v>-49.315928700000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150" s="5">
+        <v>1</v>
+      </c>
+      <c r="H150" s="5">
+        <v>4</v>
+      </c>
+      <c r="I150" s="5">
+        <v>80</v>
+      </c>
+      <c r="J150" s="5">
+        <v>90</v>
+      </c>
+      <c r="K150" s="5">
+        <v>25</v>
+      </c>
+      <c r="L150" s="6">
+        <v>6</v>
+      </c>
+      <c r="M150" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N150" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O150" s="7">
+        <v>-25.510541199999999</v>
+      </c>
+      <c r="P150" s="7">
+        <v>-49.347300500000003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A151" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151" s="5">
+        <v>1</v>
+      </c>
+      <c r="H151" s="5">
+        <v>4</v>
+      </c>
+      <c r="I151" s="5">
+        <v>80</v>
+      </c>
+      <c r="J151" s="5">
+        <v>90</v>
+      </c>
+      <c r="K151" s="5">
+        <v>25</v>
+      </c>
+      <c r="L151" s="6">
+        <v>6</v>
+      </c>
+      <c r="M151" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N151" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O151" s="7">
+        <v>-25.541356799999999</v>
+      </c>
+      <c r="P151" s="7">
+        <v>-49.367121699999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G152" s="5">
+        <v>1</v>
+      </c>
+      <c r="H152" s="5">
+        <v>4</v>
+      </c>
+      <c r="I152" s="5">
+        <v>80</v>
+      </c>
+      <c r="J152" s="5">
+        <v>90</v>
+      </c>
+      <c r="K152" s="5">
+        <v>25</v>
+      </c>
+      <c r="L152" s="6">
+        <v>6</v>
+      </c>
+      <c r="M152" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N152" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O152" s="7">
+        <v>-25.456950599999999</v>
+      </c>
+      <c r="P152" s="7">
+        <v>-49.264938100000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G153" s="5">
+        <v>1</v>
+      </c>
+      <c r="H153" s="5">
+        <v>4</v>
+      </c>
+      <c r="I153" s="5">
+        <v>80</v>
+      </c>
+      <c r="J153" s="5">
+        <v>90</v>
+      </c>
+      <c r="K153" s="5">
+        <v>25</v>
+      </c>
+      <c r="L153" s="6">
+        <v>6</v>
+      </c>
+      <c r="M153" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N153" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O153" s="7">
+        <v>-25.621593600000001</v>
+      </c>
+      <c r="P153" s="7">
+        <v>-49.396060200000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G154" s="5">
+        <v>1</v>
+      </c>
+      <c r="H154" s="5">
+        <v>4</v>
+      </c>
+      <c r="I154" s="5">
+        <v>80</v>
+      </c>
+      <c r="J154" s="5">
+        <v>90</v>
+      </c>
+      <c r="K154" s="5">
+        <v>25</v>
+      </c>
+      <c r="L154" s="6">
+        <v>6</v>
+      </c>
+      <c r="M154" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N154" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O154" s="7">
+        <v>-25.426028899999999</v>
+      </c>
+      <c r="P154" s="7">
+        <v>-49.272618399999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A155" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G155" s="5">
+        <v>1</v>
+      </c>
+      <c r="H155" s="5">
+        <v>4</v>
+      </c>
+      <c r="I155" s="5">
+        <v>80</v>
+      </c>
+      <c r="J155" s="5">
+        <v>90</v>
+      </c>
+      <c r="K155" s="5">
+        <v>25</v>
+      </c>
+      <c r="L155" s="6">
+        <v>6</v>
+      </c>
+      <c r="M155" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N155" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O155" s="7">
+        <v>-25.5416493</v>
+      </c>
+      <c r="P155" s="7">
+        <v>-49.288074199999997</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A156" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G156" s="5">
+        <v>1</v>
+      </c>
+      <c r="H156" s="5">
+        <v>4</v>
+      </c>
+      <c r="I156" s="5">
+        <v>80</v>
+      </c>
+      <c r="J156" s="5">
+        <v>90</v>
+      </c>
+      <c r="K156" s="5">
+        <v>25</v>
+      </c>
+      <c r="L156" s="6">
+        <v>6</v>
+      </c>
+      <c r="M156" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N156" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O156" s="7">
+        <v>-25.5404695</v>
+      </c>
+      <c r="P156" s="7">
+        <v>-49.2391711</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A157" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G157" s="5">
+        <v>1</v>
+      </c>
+      <c r="H157" s="5">
+        <v>4</v>
+      </c>
+      <c r="I157" s="5">
+        <v>80</v>
+      </c>
+      <c r="J157" s="5">
+        <v>90</v>
+      </c>
+      <c r="K157" s="5">
+        <v>25</v>
+      </c>
+      <c r="L157" s="6">
+        <v>6</v>
+      </c>
+      <c r="M157" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N157" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O157" s="7">
+        <v>-25.5756917</v>
+      </c>
+      <c r="P157" s="7">
+        <v>-49.362693899999996</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G158" s="5">
+        <v>1</v>
+      </c>
+      <c r="H158" s="5">
+        <v>4</v>
+      </c>
+      <c r="I158" s="5">
+        <v>80</v>
+      </c>
+      <c r="J158" s="5">
+        <v>90</v>
+      </c>
+      <c r="K158" s="5">
+        <v>25</v>
+      </c>
+      <c r="L158" s="6">
+        <v>6</v>
+      </c>
+      <c r="M158" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N158" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O158" s="7">
+        <v>-25.5663944</v>
+      </c>
+      <c r="P158" s="7">
+        <v>-49.249502100000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A159" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G159" s="5">
+        <v>1</v>
+      </c>
+      <c r="H159" s="5">
+        <v>4</v>
+      </c>
+      <c r="I159" s="5">
+        <v>80</v>
+      </c>
+      <c r="J159" s="5">
+        <v>90</v>
+      </c>
+      <c r="K159" s="5">
+        <v>25</v>
+      </c>
+      <c r="L159" s="6">
+        <v>6</v>
+      </c>
+      <c r="M159" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N159" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O159" s="7">
+        <v>-25.530308099999999</v>
+      </c>
+      <c r="P159" s="7">
+        <v>-49.271309100000003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A160" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G160" s="5">
+        <v>1</v>
+      </c>
+      <c r="H160" s="5">
+        <v>4</v>
+      </c>
+      <c r="I160" s="5">
+        <v>80</v>
+      </c>
+      <c r="J160" s="5">
+        <v>90</v>
+      </c>
+      <c r="K160" s="5">
+        <v>25</v>
+      </c>
+      <c r="L160" s="6">
+        <v>6</v>
+      </c>
+      <c r="M160" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N160" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O160" s="7">
+        <v>-25.504489499999998</v>
+      </c>
+      <c r="P160" s="7">
+        <v>-49.314172499999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G161" s="5">
+        <v>1</v>
+      </c>
+      <c r="H161" s="5">
+        <v>4</v>
+      </c>
+      <c r="I161" s="5">
+        <v>80</v>
+      </c>
+      <c r="J161" s="5">
+        <v>90</v>
+      </c>
+      <c r="K161" s="5">
+        <v>25</v>
+      </c>
+      <c r="L161" s="6">
+        <v>6</v>
+      </c>
+      <c r="M161" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N161" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O161" s="7">
+        <v>-25.565228000000001</v>
+      </c>
+      <c r="P161" s="7">
+        <v>-49.262284600000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G162" s="5">
+        <v>1</v>
+      </c>
+      <c r="H162" s="5">
+        <v>4</v>
+      </c>
+      <c r="I162" s="5">
+        <v>80</v>
+      </c>
+      <c r="J162" s="5">
+        <v>90</v>
+      </c>
+      <c r="K162" s="5">
+        <v>25</v>
+      </c>
+      <c r="L162" s="6">
+        <v>6</v>
+      </c>
+      <c r="M162" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N162" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O162" s="7">
+        <v>-25.516303600000001</v>
+      </c>
+      <c r="P162" s="7">
+        <v>-49.300837399999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G163" s="5">
+        <v>1</v>
+      </c>
+      <c r="H163" s="5">
+        <v>4</v>
+      </c>
+      <c r="I163" s="5">
+        <v>80</v>
+      </c>
+      <c r="J163" s="5">
+        <v>90</v>
+      </c>
+      <c r="K163" s="5">
+        <v>25</v>
+      </c>
+      <c r="L163" s="6">
+        <v>6</v>
+      </c>
+      <c r="M163" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N163" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O163" s="7">
+        <v>-25.370717500000001</v>
+      </c>
+      <c r="P163" s="7">
+        <v>-49.2312297</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G164" s="5">
+        <v>1</v>
+      </c>
+      <c r="H164" s="5">
+        <v>4</v>
+      </c>
+      <c r="I164" s="5">
+        <v>80</v>
+      </c>
+      <c r="J164" s="5">
+        <v>90</v>
+      </c>
+      <c r="K164" s="5">
+        <v>25</v>
+      </c>
+      <c r="L164" s="6">
+        <v>6</v>
+      </c>
+      <c r="M164" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N164" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O164" s="7">
+        <v>-25.504992099999999</v>
+      </c>
+      <c r="P164" s="7">
+        <v>-49.304844699999997</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G165" s="5">
+        <v>1</v>
+      </c>
+      <c r="H165" s="5">
+        <v>4</v>
+      </c>
+      <c r="I165" s="5">
+        <v>80</v>
+      </c>
+      <c r="J165" s="5">
+        <v>90</v>
+      </c>
+      <c r="K165" s="5">
+        <v>25</v>
+      </c>
+      <c r="L165" s="6">
+        <v>6</v>
+      </c>
+      <c r="M165" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N165" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O165" s="7">
+        <v>-25.419361299999998</v>
+      </c>
+      <c r="P165" s="7">
+        <v>-49.207698399999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G166" s="5">
+        <v>1</v>
+      </c>
+      <c r="H166" s="5">
+        <v>4</v>
+      </c>
+      <c r="I166" s="5">
+        <v>80</v>
+      </c>
+      <c r="J166" s="5">
+        <v>90</v>
+      </c>
+      <c r="K166" s="5">
+        <v>25</v>
+      </c>
+      <c r="L166" s="6">
+        <v>6</v>
+      </c>
+      <c r="M166" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N166" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O166" s="7">
+        <v>-25.533731700000001</v>
+      </c>
+      <c r="P166" s="7">
+        <v>-49.248691100000002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G167" s="5">
+        <v>1</v>
+      </c>
+      <c r="H167" s="5">
+        <v>4</v>
+      </c>
+      <c r="I167" s="5">
+        <v>80</v>
+      </c>
+      <c r="J167" s="5">
+        <v>90</v>
+      </c>
+      <c r="K167" s="5">
+        <v>25</v>
+      </c>
+      <c r="L167" s="6">
+        <v>6</v>
+      </c>
+      <c r="M167" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N167" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O167" s="7">
+        <v>-25.370511499999999</v>
+      </c>
+      <c r="P167" s="7">
+        <v>-49.2350663</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A168" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G168" s="5">
+        <v>1</v>
+      </c>
+      <c r="H168" s="5">
+        <v>4</v>
+      </c>
+      <c r="I168" s="5">
+        <v>80</v>
+      </c>
+      <c r="J168" s="5">
+        <v>90</v>
+      </c>
+      <c r="K168" s="5">
+        <v>25</v>
+      </c>
+      <c r="L168" s="6">
+        <v>6</v>
+      </c>
+      <c r="M168" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N168" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O168" s="7">
+        <v>-25.524638400000001</v>
+      </c>
+      <c r="P168" s="7">
+        <v>-49.335799299999998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A169" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G169" s="5">
+        <v>1</v>
+      </c>
+      <c r="H169" s="5">
+        <v>4</v>
+      </c>
+      <c r="I169" s="5">
+        <v>80</v>
+      </c>
+      <c r="J169" s="5">
+        <v>90</v>
+      </c>
+      <c r="K169" s="5">
+        <v>25</v>
+      </c>
+      <c r="L169" s="6">
+        <v>6</v>
+      </c>
+      <c r="M169" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N169" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O169" s="7">
+        <v>-25.558948600000001</v>
+      </c>
+      <c r="P169" s="7">
+        <v>-49.249894099999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A170" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G170" s="5">
+        <v>1</v>
+      </c>
+      <c r="H170" s="5">
+        <v>4</v>
+      </c>
+      <c r="I170" s="5">
+        <v>80</v>
+      </c>
+      <c r="J170" s="5">
+        <v>90</v>
+      </c>
+      <c r="K170" s="5">
+        <v>25</v>
+      </c>
+      <c r="L170" s="6">
+        <v>6</v>
+      </c>
+      <c r="M170" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N170" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O170" s="7">
+        <v>-25.552012699999999</v>
+      </c>
+      <c r="P170" s="7">
+        <v>-49.224489400000003</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A171" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G171" s="5">
+        <v>1</v>
+      </c>
+      <c r="H171" s="5">
+        <v>4</v>
+      </c>
+      <c r="I171" s="5">
+        <v>80</v>
+      </c>
+      <c r="J171" s="5">
+        <v>90</v>
+      </c>
+      <c r="K171" s="5">
+        <v>25</v>
+      </c>
+      <c r="L171" s="6">
+        <v>6</v>
+      </c>
+      <c r="M171" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N171" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O171" s="7">
+        <v>-25.495243299999998</v>
+      </c>
+      <c r="P171" s="7">
+        <v>-49.213838799999998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A172" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G172" s="5">
+        <v>1</v>
+      </c>
+      <c r="H172" s="5">
+        <v>4</v>
+      </c>
+      <c r="I172" s="5">
+        <v>80</v>
+      </c>
+      <c r="J172" s="5">
+        <v>90</v>
+      </c>
+      <c r="K172" s="5">
+        <v>25</v>
+      </c>
+      <c r="L172" s="6">
+        <v>6</v>
+      </c>
+      <c r="M172" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N172" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O172" s="7">
+        <v>-25.422665599999998</v>
+      </c>
+      <c r="P172" s="7">
+        <v>-49.279526699999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A173" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G173" s="5">
+        <v>1</v>
+      </c>
+      <c r="H173" s="5">
+        <v>4</v>
+      </c>
+      <c r="I173" s="5">
+        <v>80</v>
+      </c>
+      <c r="J173" s="5">
+        <v>90</v>
+      </c>
+      <c r="K173" s="5">
+        <v>25</v>
+      </c>
+      <c r="L173" s="6">
+        <v>6</v>
+      </c>
+      <c r="M173" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N173" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O173" s="7">
+        <v>-25.540226100000002</v>
+      </c>
+      <c r="P173" s="7">
+        <v>-49.277048200000003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A174" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G174" s="5">
+        <v>1</v>
+      </c>
+      <c r="H174" s="5">
+        <v>4</v>
+      </c>
+      <c r="I174" s="5">
+        <v>80</v>
+      </c>
+      <c r="J174" s="5">
+        <v>90</v>
+      </c>
+      <c r="K174" s="5">
+        <v>25</v>
+      </c>
+      <c r="L174" s="6">
+        <v>6</v>
+      </c>
+      <c r="M174" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N174" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O174" s="7">
+        <v>-25.5295278</v>
+      </c>
+      <c r="P174" s="7">
+        <v>-49.249882399999997</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A175" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G175" s="5">
+        <v>1</v>
+      </c>
+      <c r="H175" s="5">
+        <v>4</v>
+      </c>
+      <c r="I175" s="5">
+        <v>80</v>
+      </c>
+      <c r="J175" s="5">
+        <v>90</v>
+      </c>
+      <c r="K175" s="5">
+        <v>25</v>
+      </c>
+      <c r="L175" s="6">
+        <v>6</v>
+      </c>
+      <c r="M175" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N175" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O175" s="7">
+        <v>-25.583185</v>
+      </c>
+      <c r="P175" s="7">
+        <v>-49.361242799999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A176" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G176" s="5">
+        <v>1</v>
+      </c>
+      <c r="H176" s="5">
+        <v>4</v>
+      </c>
+      <c r="I176" s="5">
+        <v>80</v>
+      </c>
+      <c r="J176" s="5">
+        <v>90</v>
+      </c>
+      <c r="K176" s="5">
+        <v>25</v>
+      </c>
+      <c r="L176" s="6">
+        <v>6</v>
+      </c>
+      <c r="M176" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N176" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O176" s="7">
+        <v>-25.530208500000001</v>
+      </c>
+      <c r="P176" s="7">
+        <v>-49.248158400000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A177" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G177" s="5">
+        <v>1</v>
+      </c>
+      <c r="H177" s="5">
+        <v>4</v>
+      </c>
+      <c r="I177" s="5">
+        <v>80</v>
+      </c>
+      <c r="J177" s="5">
+        <v>90</v>
+      </c>
+      <c r="K177" s="5">
+        <v>25</v>
+      </c>
+      <c r="L177" s="6">
+        <v>6</v>
+      </c>
+      <c r="M177" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N177" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O177" s="7">
+        <v>-25.5757032</v>
+      </c>
+      <c r="P177" s="7">
+        <v>-49.360657600000003</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G178" s="5">
+        <v>1</v>
+      </c>
+      <c r="H178" s="5">
+        <v>4</v>
+      </c>
+      <c r="I178" s="5">
+        <v>80</v>
+      </c>
+      <c r="J178" s="5">
+        <v>90</v>
+      </c>
+      <c r="K178" s="5">
+        <v>25</v>
+      </c>
+      <c r="L178" s="6">
+        <v>6</v>
+      </c>
+      <c r="M178" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N178" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O178" s="7">
+        <v>-25.579156099999999</v>
+      </c>
+      <c r="P178" s="7">
+        <v>-49.361709900000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A179" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G179" s="5">
+        <v>1</v>
+      </c>
+      <c r="H179" s="5">
+        <v>4</v>
+      </c>
+      <c r="I179" s="5">
+        <v>80</v>
+      </c>
+      <c r="J179" s="5">
+        <v>90</v>
+      </c>
+      <c r="K179" s="5">
+        <v>25</v>
+      </c>
+      <c r="L179" s="6">
+        <v>6</v>
+      </c>
+      <c r="M179" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N179" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O179" s="7">
+        <v>-25.511895899999999</v>
+      </c>
+      <c r="P179" s="7">
+        <v>-49.354525299999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A180" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G180" s="5">
+        <v>1</v>
+      </c>
+      <c r="H180" s="5">
+        <v>4</v>
+      </c>
+      <c r="I180" s="5">
+        <v>80</v>
+      </c>
+      <c r="J180" s="5">
+        <v>90</v>
+      </c>
+      <c r="K180" s="5">
+        <v>25</v>
+      </c>
+      <c r="L180" s="6">
+        <v>6</v>
+      </c>
+      <c r="M180" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N180" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O180" s="7">
+        <v>-25.3979572</v>
+      </c>
+      <c r="P180" s="7">
+        <v>-49.3538292</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A181" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G181" s="5">
+        <v>1</v>
+      </c>
+      <c r="H181" s="5">
+        <v>4</v>
+      </c>
+      <c r="I181" s="5">
+        <v>80</v>
+      </c>
+      <c r="J181" s="5">
+        <v>90</v>
+      </c>
+      <c r="K181" s="5">
+        <v>25</v>
+      </c>
+      <c r="L181" s="6">
+        <v>6</v>
+      </c>
+      <c r="M181" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N181" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O181" s="7">
+        <v>-25.5825797</v>
+      </c>
+      <c r="P181" s="7">
+        <v>-49.308264700000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A182" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G182" s="5">
+        <v>1</v>
+      </c>
+      <c r="H182" s="5">
+        <v>4</v>
+      </c>
+      <c r="I182" s="5">
+        <v>80</v>
+      </c>
+      <c r="J182" s="5">
+        <v>90</v>
+      </c>
+      <c r="K182" s="5">
+        <v>25</v>
+      </c>
+      <c r="L182" s="6">
+        <v>6</v>
+      </c>
+      <c r="M182" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N182" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O182" s="7">
+        <v>-25.533563399999998</v>
+      </c>
+      <c r="P182" s="7">
+        <v>-49.3535489</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A183" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G183" s="5">
+        <v>1</v>
+      </c>
+      <c r="H183" s="5">
+        <v>4</v>
+      </c>
+      <c r="I183" s="5">
+        <v>80</v>
+      </c>
+      <c r="J183" s="5">
+        <v>90</v>
+      </c>
+      <c r="K183" s="5">
+        <v>25</v>
+      </c>
+      <c r="L183" s="6">
+        <v>6</v>
+      </c>
+      <c r="M183" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N183" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O183" s="7">
+        <v>-25.431176099999998</v>
+      </c>
+      <c r="P183" s="7">
+        <v>-49.271507700000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A184" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G184" s="5">
+        <v>1</v>
+      </c>
+      <c r="H184" s="5">
+        <v>4</v>
+      </c>
+      <c r="I184" s="5">
+        <v>80</v>
+      </c>
+      <c r="J184" s="5">
+        <v>90</v>
+      </c>
+      <c r="K184" s="5">
+        <v>25</v>
+      </c>
+      <c r="L184" s="6">
+        <v>6</v>
+      </c>
+      <c r="M184" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N184" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O184" s="7">
+        <v>-25.577607700000002</v>
+      </c>
+      <c r="P184" s="7">
+        <v>-49.369371600000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A185" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G185" s="5">
+        <v>1</v>
+      </c>
+      <c r="H185" s="5">
+        <v>4</v>
+      </c>
+      <c r="I185" s="5">
+        <v>80</v>
+      </c>
+      <c r="J185" s="5">
+        <v>90</v>
+      </c>
+      <c r="K185" s="5">
+        <v>25</v>
+      </c>
+      <c r="L185" s="6">
+        <v>6</v>
+      </c>
+      <c r="M185" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N185" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O185" s="7">
+        <v>-25.559156600000001</v>
+      </c>
+      <c r="P185" s="7">
+        <v>-49.251499299999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A186" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G186" s="5">
+        <v>1</v>
+      </c>
+      <c r="H186" s="5">
+        <v>4</v>
+      </c>
+      <c r="I186" s="5">
+        <v>80</v>
+      </c>
+      <c r="J186" s="5">
+        <v>90</v>
+      </c>
+      <c r="K186" s="5">
+        <v>25</v>
+      </c>
+      <c r="L186" s="6">
+        <v>6</v>
+      </c>
+      <c r="M186" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N186" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O186" s="7">
+        <v>-25.543829500000001</v>
+      </c>
+      <c r="P186" s="7">
+        <v>-49.2298027</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A187" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G187" s="5">
+        <v>1</v>
+      </c>
+      <c r="H187" s="5">
+        <v>4</v>
+      </c>
+      <c r="I187" s="5">
+        <v>80</v>
+      </c>
+      <c r="J187" s="5">
+        <v>90</v>
+      </c>
+      <c r="K187" s="5">
+        <v>25</v>
+      </c>
+      <c r="L187" s="6">
+        <v>6</v>
+      </c>
+      <c r="M187" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N187" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O187" s="7">
+        <v>-25.471119900000001</v>
+      </c>
+      <c r="P187" s="7">
+        <v>-49.276257899999997</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A188" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G188" s="5">
+        <v>1</v>
+      </c>
+      <c r="H188" s="5">
+        <v>4</v>
+      </c>
+      <c r="I188" s="5">
+        <v>80</v>
+      </c>
+      <c r="J188" s="5">
+        <v>90</v>
+      </c>
+      <c r="K188" s="5">
+        <v>25</v>
+      </c>
+      <c r="L188" s="6">
+        <v>6</v>
+      </c>
+      <c r="M188" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N188" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O188" s="7">
+        <v>-25.5162315</v>
+      </c>
+      <c r="P188" s="7">
+        <v>-49.304118099999997</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A189" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G189" s="5">
+        <v>1</v>
+      </c>
+      <c r="H189" s="5">
+        <v>4</v>
+      </c>
+      <c r="I189" s="5">
+        <v>80</v>
+      </c>
+      <c r="J189" s="5">
+        <v>90</v>
+      </c>
+      <c r="K189" s="5">
+        <v>25</v>
+      </c>
+      <c r="L189" s="6">
+        <v>6</v>
+      </c>
+      <c r="M189" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N189" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O189" s="7">
+        <v>-25.391162300000001</v>
+      </c>
+      <c r="P189" s="7">
+        <v>-49.281616700000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A190" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G190" s="5">
+        <v>1</v>
+      </c>
+      <c r="H190" s="5">
+        <v>4</v>
+      </c>
+      <c r="I190" s="5">
+        <v>80</v>
+      </c>
+      <c r="J190" s="5">
+        <v>90</v>
+      </c>
+      <c r="K190" s="5">
+        <v>25</v>
+      </c>
+      <c r="L190" s="6">
+        <v>6</v>
+      </c>
+      <c r="M190" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N190" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O190" s="7">
+        <v>-25.381703300000002</v>
+      </c>
+      <c r="P190" s="7">
+        <v>-49.3359722</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A191" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G191" s="5">
+        <v>1</v>
+      </c>
+      <c r="H191" s="5">
+        <v>4</v>
+      </c>
+      <c r="I191" s="5">
+        <v>80</v>
+      </c>
+      <c r="J191" s="5">
+        <v>90</v>
+      </c>
+      <c r="K191" s="5">
+        <v>25</v>
+      </c>
+      <c r="L191" s="6">
+        <v>6</v>
+      </c>
+      <c r="M191" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N191" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O191" s="7">
+        <v>-25.582308399999999</v>
+      </c>
+      <c r="P191" s="7">
+        <v>-49.3639224</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A192" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G192" s="5">
+        <v>1</v>
+      </c>
+      <c r="H192" s="5">
+        <v>4</v>
+      </c>
+      <c r="I192" s="5">
+        <v>80</v>
+      </c>
+      <c r="J192" s="5">
+        <v>90</v>
+      </c>
+      <c r="K192" s="5">
+        <v>25</v>
+      </c>
+      <c r="L192" s="6">
+        <v>6</v>
+      </c>
+      <c r="M192" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N192" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O192" s="7">
+        <v>-25.580374200000001</v>
+      </c>
+      <c r="P192" s="7">
+        <v>-49.364468500000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A193" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G193" s="5">
+        <v>1</v>
+      </c>
+      <c r="H193" s="5">
+        <v>4</v>
+      </c>
+      <c r="I193" s="5">
+        <v>80</v>
+      </c>
+      <c r="J193" s="5">
+        <v>90</v>
+      </c>
+      <c r="K193" s="5">
+        <v>25</v>
+      </c>
+      <c r="L193" s="6">
+        <v>6</v>
+      </c>
+      <c r="M193" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N193" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O193" s="7">
+        <v>-25.5393212</v>
+      </c>
+      <c r="P193" s="7">
+        <v>-49.349911599999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A194" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G194" s="5">
+        <v>1</v>
+      </c>
+      <c r="H194" s="5">
+        <v>4</v>
+      </c>
+      <c r="I194" s="5">
+        <v>80</v>
+      </c>
+      <c r="J194" s="5">
+        <v>90</v>
+      </c>
+      <c r="K194" s="5">
+        <v>25</v>
+      </c>
+      <c r="L194" s="6">
+        <v>6</v>
+      </c>
+      <c r="M194" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N194" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O194" s="7">
+        <v>-25.494898800000001</v>
+      </c>
+      <c r="P194" s="7">
+        <v>-49.226573399999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A195" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G195" s="5">
+        <v>1</v>
+      </c>
+      <c r="H195" s="5">
+        <v>4</v>
+      </c>
+      <c r="I195" s="5">
+        <v>80</v>
+      </c>
+      <c r="J195" s="5">
+        <v>90</v>
+      </c>
+      <c r="K195" s="5">
+        <v>25</v>
+      </c>
+      <c r="L195" s="6">
+        <v>6</v>
+      </c>
+      <c r="M195" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N195" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O195" s="7">
+        <v>-25.542383999999998</v>
+      </c>
+      <c r="P195" s="7">
+        <v>-49.233962699999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A196" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G196" s="5">
+        <v>1</v>
+      </c>
+      <c r="H196" s="5">
+        <v>4</v>
+      </c>
+      <c r="I196" s="5">
+        <v>80</v>
+      </c>
+      <c r="J196" s="5">
+        <v>90</v>
+      </c>
+      <c r="K196" s="5">
+        <v>25</v>
+      </c>
+      <c r="L196" s="6">
+        <v>6</v>
+      </c>
+      <c r="M196" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N196" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O196" s="7">
+        <v>-25.576881700000001</v>
+      </c>
+      <c r="P196" s="7">
+        <v>-49.320444899999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A197" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G197" s="5">
+        <v>1</v>
+      </c>
+      <c r="H197" s="5">
+        <v>4</v>
+      </c>
+      <c r="I197" s="5">
+        <v>80</v>
+      </c>
+      <c r="J197" s="5">
+        <v>90</v>
+      </c>
+      <c r="K197" s="5">
+        <v>25</v>
+      </c>
+      <c r="L197" s="6">
+        <v>6</v>
+      </c>
+      <c r="M197" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N197" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O197" s="7">
+        <v>-25.496843500000001</v>
+      </c>
+      <c r="P197" s="7">
+        <v>-49.313895600000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A198" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E198" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G198" s="5">
+        <v>1</v>
+      </c>
+      <c r="H198" s="5">
+        <v>4</v>
+      </c>
+      <c r="I198" s="5">
+        <v>80</v>
+      </c>
+      <c r="J198" s="5">
+        <v>90</v>
+      </c>
+      <c r="K198" s="5">
+        <v>25</v>
+      </c>
+      <c r="L198" s="6">
+        <v>6</v>
+      </c>
+      <c r="M198" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N198" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O198" s="7">
+        <v>-25.361927999999999</v>
+      </c>
+      <c r="P198" s="7">
+        <v>-49.221050400000003</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A199" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G199" s="5">
+        <v>1</v>
+      </c>
+      <c r="H199" s="5">
+        <v>4</v>
+      </c>
+      <c r="I199" s="5">
+        <v>80</v>
+      </c>
+      <c r="J199" s="5">
+        <v>90</v>
+      </c>
+      <c r="K199" s="5">
+        <v>25</v>
+      </c>
+      <c r="L199" s="6">
+        <v>6</v>
+      </c>
+      <c r="M199" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N199" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O199" s="7">
+        <v>-25.346237599999998</v>
+      </c>
+      <c r="P199" s="7">
+        <v>-49.273187700000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A200" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G200" s="5">
+        <v>1</v>
+      </c>
+      <c r="H200" s="5">
+        <v>4</v>
+      </c>
+      <c r="I200" s="5">
+        <v>80</v>
+      </c>
+      <c r="J200" s="5">
+        <v>90</v>
+      </c>
+      <c r="K200" s="5">
+        <v>25</v>
+      </c>
+      <c r="L200" s="6">
+        <v>6</v>
+      </c>
+      <c r="M200" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N200" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O200" s="7">
+        <v>-25.388625099999999</v>
+      </c>
+      <c r="P200" s="7">
+        <v>-49.332962999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A201" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G201" s="5">
+        <v>1</v>
+      </c>
+      <c r="H201" s="5">
+        <v>4</v>
+      </c>
+      <c r="I201" s="5">
+        <v>80</v>
+      </c>
+      <c r="J201" s="5">
+        <v>90</v>
+      </c>
+      <c r="K201" s="5">
+        <v>25</v>
+      </c>
+      <c r="L201" s="6">
+        <v>6</v>
+      </c>
+      <c r="M201" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N201" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O201" s="7">
+        <v>-25.470689400000001</v>
+      </c>
+      <c r="P201" s="7">
+        <v>-49.313120499999997</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A202" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G202" s="5">
+        <v>1</v>
+      </c>
+      <c r="H202" s="5">
+        <v>4</v>
+      </c>
+      <c r="I202" s="5">
+        <v>80</v>
+      </c>
+      <c r="J202" s="5">
+        <v>90</v>
+      </c>
+      <c r="K202" s="5">
+        <v>25</v>
+      </c>
+      <c r="L202" s="6">
+        <v>6</v>
+      </c>
+      <c r="M202" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N202" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O202" s="7">
+        <v>-25.4697931</v>
+      </c>
+      <c r="P202" s="7">
+        <v>-49.316750900000002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A203" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G203" s="5">
+        <v>1</v>
+      </c>
+      <c r="H203" s="5">
+        <v>4</v>
+      </c>
+      <c r="I203" s="5">
+        <v>80</v>
+      </c>
+      <c r="J203" s="5">
+        <v>90</v>
+      </c>
+      <c r="K203" s="5">
+        <v>25</v>
+      </c>
+      <c r="L203" s="6">
+        <v>6</v>
+      </c>
+      <c r="M203" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N203" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O203" s="7">
+        <v>-25.465015999999999</v>
+      </c>
+      <c r="P203" s="7">
+        <v>-49.349106999999997</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A204" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E204" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G204" s="5">
+        <v>1</v>
+      </c>
+      <c r="H204" s="5">
+        <v>4</v>
+      </c>
+      <c r="I204" s="5">
+        <v>80</v>
+      </c>
+      <c r="J204" s="5">
+        <v>90</v>
+      </c>
+      <c r="K204" s="5">
+        <v>25</v>
+      </c>
+      <c r="L204" s="6">
+        <v>6</v>
+      </c>
+      <c r="M204" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N204" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O204" s="7">
+        <v>-25.408774399999999</v>
+      </c>
+      <c r="P204" s="7">
+        <v>-49.348614699999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A205" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G205" s="5">
+        <v>1</v>
+      </c>
+      <c r="H205" s="5">
+        <v>4</v>
+      </c>
+      <c r="I205" s="5">
+        <v>80</v>
+      </c>
+      <c r="J205" s="5">
+        <v>90</v>
+      </c>
+      <c r="K205" s="5">
+        <v>25</v>
+      </c>
+      <c r="L205" s="6">
+        <v>6</v>
+      </c>
+      <c r="M205" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N205" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O205" s="7">
+        <v>-25.4557921</v>
+      </c>
+      <c r="P205" s="7">
+        <v>-49.187735000000004</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A206" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G206" s="5">
+        <v>1</v>
+      </c>
+      <c r="H206" s="5">
+        <v>4</v>
+      </c>
+      <c r="I206" s="5">
+        <v>80</v>
+      </c>
+      <c r="J206" s="5">
+        <v>90</v>
+      </c>
+      <c r="K206" s="5">
+        <v>25</v>
+      </c>
+      <c r="L206" s="6">
+        <v>6</v>
+      </c>
+      <c r="M206" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N206" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O206" s="7">
+        <v>-25.5442742</v>
+      </c>
+      <c r="P206" s="7">
+        <v>-49.234982299999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A207" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G207" s="5">
+        <v>1</v>
+      </c>
+      <c r="H207" s="5">
+        <v>4</v>
+      </c>
+      <c r="I207" s="5">
+        <v>80</v>
+      </c>
+      <c r="J207" s="5">
+        <v>90</v>
+      </c>
+      <c r="K207" s="5">
+        <v>25</v>
+      </c>
+      <c r="L207" s="6">
+        <v>6</v>
+      </c>
+      <c r="M207" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N207" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O207" s="7">
+        <v>-25.521661000000002</v>
+      </c>
+      <c r="P207" s="7">
+        <v>-49.356439399999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A208" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E208" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G208" s="5">
+        <v>1</v>
+      </c>
+      <c r="H208" s="5">
+        <v>4</v>
+      </c>
+      <c r="I208" s="5">
+        <v>80</v>
+      </c>
+      <c r="J208" s="5">
+        <v>90</v>
+      </c>
+      <c r="K208" s="5">
+        <v>25</v>
+      </c>
+      <c r="L208" s="6">
+        <v>6</v>
+      </c>
+      <c r="M208" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N208" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O208" s="7">
+        <v>-25.528130099999998</v>
+      </c>
+      <c r="P208" s="7">
+        <v>-49.340424200000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A209" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G209" s="5">
+        <v>1</v>
+      </c>
+      <c r="H209" s="5">
+        <v>4</v>
+      </c>
+      <c r="I209" s="5">
+        <v>80</v>
+      </c>
+      <c r="J209" s="5">
+        <v>90</v>
+      </c>
+      <c r="K209" s="5">
+        <v>25</v>
+      </c>
+      <c r="L209" s="6">
+        <v>6</v>
+      </c>
+      <c r="M209" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N209" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O209" s="7">
+        <v>-25.492880700000001</v>
+      </c>
+      <c r="P209" s="7">
+        <v>-49.222434700000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A210" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G210" s="5">
+        <v>1</v>
+      </c>
+      <c r="H210" s="5">
+        <v>4</v>
+      </c>
+      <c r="I210" s="5">
+        <v>80</v>
+      </c>
+      <c r="J210" s="5">
+        <v>90</v>
+      </c>
+      <c r="K210" s="5">
+        <v>25</v>
+      </c>
+      <c r="L210" s="6">
+        <v>6</v>
+      </c>
+      <c r="M210" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N210" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O210" s="7">
+        <v>-25.537200599999998</v>
+      </c>
+      <c r="P210" s="7">
+        <v>-49.264539399999997</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A211" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G211" s="5">
+        <v>1</v>
+      </c>
+      <c r="H211" s="5">
+        <v>4</v>
+      </c>
+      <c r="I211" s="5">
+        <v>80</v>
+      </c>
+      <c r="J211" s="5">
+        <v>90</v>
+      </c>
+      <c r="K211" s="5">
+        <v>25</v>
+      </c>
+      <c r="L211" s="6">
+        <v>6</v>
+      </c>
+      <c r="M211" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N211" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O211" s="7">
+        <v>-25.457409500000001</v>
+      </c>
+      <c r="P211" s="7">
+        <v>-49.1920243</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A212" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E212" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G212" s="5">
+        <v>1</v>
+      </c>
+      <c r="H212" s="5">
+        <v>4</v>
+      </c>
+      <c r="I212" s="5">
+        <v>80</v>
+      </c>
+      <c r="J212" s="5">
+        <v>90</v>
+      </c>
+      <c r="K212" s="5">
+        <v>25</v>
+      </c>
+      <c r="L212" s="6">
+        <v>6</v>
+      </c>
+      <c r="M212" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N212" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O212" s="7">
+        <v>-25.5234074</v>
+      </c>
+      <c r="P212" s="7">
+        <v>-49.353015300000003</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A213" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E213" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G213" s="5">
+        <v>1</v>
+      </c>
+      <c r="H213" s="5">
+        <v>4</v>
+      </c>
+      <c r="I213" s="5">
+        <v>80</v>
+      </c>
+      <c r="J213" s="5">
+        <v>90</v>
+      </c>
+      <c r="K213" s="5">
+        <v>25</v>
+      </c>
+      <c r="L213" s="6">
+        <v>6</v>
+      </c>
+      <c r="M213" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N213" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O213" s="7">
+        <v>-25.529620600000001</v>
+      </c>
+      <c r="P213" s="7">
+        <v>-49.338996100000003</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A214" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G214" s="5">
+        <v>1</v>
+      </c>
+      <c r="H214" s="5">
+        <v>4</v>
+      </c>
+      <c r="I214" s="5">
+        <v>80</v>
+      </c>
+      <c r="J214" s="5">
+        <v>90</v>
+      </c>
+      <c r="K214" s="5">
+        <v>25</v>
+      </c>
+      <c r="L214" s="6">
+        <v>6</v>
+      </c>
+      <c r="M214" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N214" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O214" s="7">
+        <v>-25.527823699999999</v>
+      </c>
+      <c r="P214" s="7">
+        <v>-49.251059300000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A215" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E215" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G215" s="5">
+        <v>1</v>
+      </c>
+      <c r="H215" s="5">
+        <v>4</v>
+      </c>
+      <c r="I215" s="5">
+        <v>80</v>
+      </c>
+      <c r="J215" s="5">
+        <v>90</v>
+      </c>
+      <c r="K215" s="5">
+        <v>25</v>
+      </c>
+      <c r="L215" s="6">
+        <v>6</v>
+      </c>
+      <c r="M215" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N215" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O215" s="7">
+        <v>-25.383478400000001</v>
+      </c>
+      <c r="P215" s="7">
+        <v>-49.199606199999998</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A216" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G216" s="5">
+        <v>1</v>
+      </c>
+      <c r="H216" s="5">
+        <v>4</v>
+      </c>
+      <c r="I216" s="5">
+        <v>80</v>
+      </c>
+      <c r="J216" s="5">
+        <v>90</v>
+      </c>
+      <c r="K216" s="5">
+        <v>25</v>
+      </c>
+      <c r="L216" s="6">
+        <v>6</v>
+      </c>
+      <c r="M216" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N216" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O216" s="7">
+        <v>-25.3703149</v>
+      </c>
+      <c r="P216" s="7">
+        <v>-49.224575999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A217" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G217" s="5">
+        <v>1</v>
+      </c>
+      <c r="H217" s="5">
+        <v>4</v>
+      </c>
+      <c r="I217" s="5">
+        <v>80</v>
+      </c>
+      <c r="J217" s="5">
+        <v>90</v>
+      </c>
+      <c r="K217" s="5">
+        <v>25</v>
+      </c>
+      <c r="L217" s="6">
+        <v>6</v>
+      </c>
+      <c r="M217" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N217" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O217" s="7">
+        <v>-25.464624100000002</v>
+      </c>
+      <c r="P217" s="7">
+        <v>-49.1945561</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A218" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G218" s="5">
+        <v>1</v>
+      </c>
+      <c r="H218" s="5">
+        <v>4</v>
+      </c>
+      <c r="I218" s="5">
+        <v>80</v>
+      </c>
+      <c r="J218" s="5">
+        <v>90</v>
+      </c>
+      <c r="K218" s="5">
+        <v>25</v>
+      </c>
+      <c r="L218" s="6">
+        <v>6</v>
+      </c>
+      <c r="M218" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N218" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O218" s="7">
+        <v>-25.464029199999999</v>
+      </c>
+      <c r="P218" s="7">
+        <v>-49.195964099999998</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A219" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G219" s="5">
+        <v>1</v>
+      </c>
+      <c r="H219" s="5">
+        <v>4</v>
+      </c>
+      <c r="I219" s="5">
+        <v>80</v>
+      </c>
+      <c r="J219" s="5">
+        <v>90</v>
+      </c>
+      <c r="K219" s="5">
+        <v>25</v>
+      </c>
+      <c r="L219" s="6">
+        <v>6</v>
+      </c>
+      <c r="M219" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N219" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O219" s="7">
+        <v>-25.483967499999999</v>
+      </c>
+      <c r="P219" s="7">
+        <v>-49.207342400000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A220" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E220" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G220" s="5">
+        <v>1</v>
+      </c>
+      <c r="H220" s="5">
+        <v>4</v>
+      </c>
+      <c r="I220" s="5">
+        <v>80</v>
+      </c>
+      <c r="J220" s="5">
+        <v>90</v>
+      </c>
+      <c r="K220" s="5">
+        <v>25</v>
+      </c>
+      <c r="L220" s="6">
+        <v>6</v>
+      </c>
+      <c r="M220" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N220" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O220" s="7">
+        <v>-25.570369400000001</v>
+      </c>
+      <c r="P220" s="7">
+        <v>-49.286366000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A221" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E221" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G221" s="5">
+        <v>1</v>
+      </c>
+      <c r="H221" s="5">
+        <v>4</v>
+      </c>
+      <c r="I221" s="5">
+        <v>80</v>
+      </c>
+      <c r="J221" s="5">
+        <v>90</v>
+      </c>
+      <c r="K221" s="5">
+        <v>25</v>
+      </c>
+      <c r="L221" s="6">
+        <v>6</v>
+      </c>
+      <c r="M221" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N221" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O221" s="7">
+        <v>-25.570985</v>
+      </c>
+      <c r="P221" s="7">
+        <v>-49.278086500000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A222" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E222" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G222" s="5">
+        <v>1</v>
+      </c>
+      <c r="H222" s="5">
+        <v>4</v>
+      </c>
+      <c r="I222" s="5">
+        <v>80</v>
+      </c>
+      <c r="J222" s="5">
+        <v>90</v>
+      </c>
+      <c r="K222" s="5">
+        <v>25</v>
+      </c>
+      <c r="L222" s="6">
+        <v>6</v>
+      </c>
+      <c r="M222" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N222" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O222" s="7">
+        <v>-25.403943699999999</v>
+      </c>
+      <c r="P222" s="7">
+        <v>-49.339796100000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A223" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G223" s="5">
+        <v>1</v>
+      </c>
+      <c r="H223" s="5">
+        <v>4</v>
+      </c>
+      <c r="I223" s="5">
+        <v>80</v>
+      </c>
+      <c r="J223" s="5">
+        <v>90</v>
+      </c>
+      <c r="K223" s="5">
+        <v>25</v>
+      </c>
+      <c r="L223" s="6">
+        <v>6</v>
+      </c>
+      <c r="M223" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N223" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O223" s="7">
+        <v>-25.515990200000001</v>
+      </c>
+      <c r="P223" s="7">
+        <v>-49.299270999999997</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A224" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E224" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G224" s="5">
+        <v>1</v>
+      </c>
+      <c r="H224" s="5">
+        <v>4</v>
+      </c>
+      <c r="I224" s="5">
+        <v>80</v>
+      </c>
+      <c r="J224" s="5">
+        <v>90</v>
+      </c>
+      <c r="K224" s="5">
+        <v>25</v>
+      </c>
+      <c r="L224" s="6">
+        <v>6</v>
+      </c>
+      <c r="M224" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N224" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O224" s="7">
+        <v>-25.360206000000002</v>
+      </c>
+      <c r="P224" s="7">
+        <v>-49.278221899999998</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A225" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E225" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G225" s="5">
+        <v>1</v>
+      </c>
+      <c r="H225" s="5">
+        <v>4</v>
+      </c>
+      <c r="I225" s="5">
+        <v>80</v>
+      </c>
+      <c r="J225" s="5">
+        <v>90</v>
+      </c>
+      <c r="K225" s="5">
+        <v>25</v>
+      </c>
+      <c r="L225" s="6">
+        <v>6</v>
+      </c>
+      <c r="M225" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N225" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O225" s="7">
+        <v>-25.382254400000001</v>
+      </c>
+      <c r="P225" s="7">
+        <v>-49.208913899999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A226" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E226" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G226" s="5">
+        <v>1</v>
+      </c>
+      <c r="H226" s="5">
+        <v>4</v>
+      </c>
+      <c r="I226" s="5">
+        <v>80</v>
+      </c>
+      <c r="J226" s="5">
+        <v>90</v>
+      </c>
+      <c r="K226" s="5">
+        <v>25</v>
+      </c>
+      <c r="L226" s="6">
+        <v>6</v>
+      </c>
+      <c r="M226" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N226" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O226" s="7">
+        <v>-25.506701700000001</v>
+      </c>
+      <c r="P226" s="7">
+        <v>-49.302318499999998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A227" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E227" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G227" s="5">
+        <v>1</v>
+      </c>
+      <c r="H227" s="5">
+        <v>4</v>
+      </c>
+      <c r="I227" s="5">
+        <v>80</v>
+      </c>
+      <c r="J227" s="5">
+        <v>90</v>
+      </c>
+      <c r="K227" s="5">
+        <v>25</v>
+      </c>
+      <c r="L227" s="6">
+        <v>6</v>
+      </c>
+      <c r="M227" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N227" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O227" s="7">
+        <v>-25.4735391</v>
+      </c>
+      <c r="P227" s="7">
+        <v>-49.2751959</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A228" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="D228" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G228" s="5">
+        <v>1</v>
+      </c>
+      <c r="H228" s="5">
+        <v>4</v>
+      </c>
+      <c r="I228" s="5">
+        <v>80</v>
+      </c>
+      <c r="J228" s="5">
+        <v>90</v>
+      </c>
+      <c r="K228" s="5">
+        <v>25</v>
+      </c>
+      <c r="L228" s="6">
+        <v>6</v>
+      </c>
+      <c r="M228" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N228" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O228" s="7">
+        <v>-25.510216700000001</v>
+      </c>
+      <c r="P228" s="7">
+        <v>-49.265349499999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A229" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E229" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G229" s="5">
+        <v>1</v>
+      </c>
+      <c r="H229" s="5">
+        <v>4</v>
+      </c>
+      <c r="I229" s="5">
+        <v>80</v>
+      </c>
+      <c r="J229" s="5">
+        <v>90</v>
+      </c>
+      <c r="K229" s="5">
+        <v>25</v>
+      </c>
+      <c r="L229" s="6">
+        <v>6</v>
+      </c>
+      <c r="M229" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N229" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O229" s="7">
+        <v>-25.511571700000001</v>
+      </c>
+      <c r="P229" s="7">
+        <v>-49.307309400000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A230" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G230" s="5">
+        <v>1</v>
+      </c>
+      <c r="H230" s="5">
+        <v>4</v>
+      </c>
+      <c r="I230" s="5">
+        <v>80</v>
+      </c>
+      <c r="J230" s="5">
+        <v>90</v>
+      </c>
+      <c r="K230" s="5">
+        <v>25</v>
+      </c>
+      <c r="L230" s="6">
+        <v>6</v>
+      </c>
+      <c r="M230" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N230" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O230" s="7">
+        <v>-25.368849300000001</v>
+      </c>
+      <c r="P230" s="7">
+        <v>-49.279241499999998</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A231" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E231" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G231" s="5">
+        <v>1</v>
+      </c>
+      <c r="H231" s="5">
+        <v>4</v>
+      </c>
+      <c r="I231" s="5">
+        <v>80</v>
+      </c>
+      <c r="J231" s="5">
+        <v>90</v>
+      </c>
+      <c r="K231" s="5">
+        <v>25</v>
+      </c>
+      <c r="L231" s="6">
+        <v>6</v>
+      </c>
+      <c r="M231" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N231" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O231" s="7">
+        <v>-25.532295699999999</v>
+      </c>
+      <c r="P231" s="7">
+        <v>-49.306961100000002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A232" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="D232" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E232" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G232" s="5">
+        <v>1</v>
+      </c>
+      <c r="H232" s="5">
+        <v>4</v>
+      </c>
+      <c r="I232" s="5">
+        <v>80</v>
+      </c>
+      <c r="J232" s="5">
+        <v>90</v>
+      </c>
+      <c r="K232" s="5">
+        <v>25</v>
+      </c>
+      <c r="L232" s="6">
+        <v>6</v>
+      </c>
+      <c r="M232" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N232" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O232" s="7">
+        <v>-25.515398999999999</v>
+      </c>
+      <c r="P232" s="7">
+        <v>-49.332588399999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A233" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="D233" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E233" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G233" s="5">
+        <v>1</v>
+      </c>
+      <c r="H233" s="5">
+        <v>4</v>
+      </c>
+      <c r="I233" s="5">
+        <v>80</v>
+      </c>
+      <c r="J233" s="5">
+        <v>90</v>
+      </c>
+      <c r="K233" s="5">
+        <v>25</v>
+      </c>
+      <c r="L233" s="6">
+        <v>6</v>
+      </c>
+      <c r="M233" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N233" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O233" s="7">
+        <v>-25.536840699999999</v>
+      </c>
+      <c r="P233" s="7">
+        <v>-49.373330000000003</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A234" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E234" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G234" s="5">
+        <v>1</v>
+      </c>
+      <c r="H234" s="5">
+        <v>4</v>
+      </c>
+      <c r="I234" s="5">
+        <v>80</v>
+      </c>
+      <c r="J234" s="5">
+        <v>90</v>
+      </c>
+      <c r="K234" s="5">
+        <v>25</v>
+      </c>
+      <c r="L234" s="6">
+        <v>6</v>
+      </c>
+      <c r="M234" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N234" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O234" s="7">
+        <v>-25.535222399999999</v>
+      </c>
+      <c r="P234" s="7">
+        <v>-49.257816099999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A235" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="D235" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G235" s="5">
+        <v>1</v>
+      </c>
+      <c r="H235" s="5">
+        <v>4</v>
+      </c>
+      <c r="I235" s="5">
+        <v>80</v>
+      </c>
+      <c r="J235" s="5">
+        <v>90</v>
+      </c>
+      <c r="K235" s="5">
+        <v>25</v>
+      </c>
+      <c r="L235" s="6">
+        <v>6</v>
+      </c>
+      <c r="M235" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N235" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O235" s="7">
+        <v>-25.391042899999999</v>
+      </c>
+      <c r="P235" s="7">
+        <v>-49.294674899999997</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A236" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="D236" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E236" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G236" s="5">
+        <v>1</v>
+      </c>
+      <c r="H236" s="5">
+        <v>4</v>
+      </c>
+      <c r="I236" s="5">
+        <v>80</v>
+      </c>
+      <c r="J236" s="5">
+        <v>90</v>
+      </c>
+      <c r="K236" s="5">
+        <v>25</v>
+      </c>
+      <c r="L236" s="6">
+        <v>6</v>
+      </c>
+      <c r="M236" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N236" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O236" s="7">
+        <v>-25.537568199999999</v>
+      </c>
+      <c r="P236" s="7">
+        <v>-49.368364100000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A237" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E237" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G237" s="5">
+        <v>1</v>
+      </c>
+      <c r="H237" s="5">
+        <v>4</v>
+      </c>
+      <c r="I237" s="5">
+        <v>80</v>
+      </c>
+      <c r="J237" s="5">
+        <v>90</v>
+      </c>
+      <c r="K237" s="5">
+        <v>25</v>
+      </c>
+      <c r="L237" s="6">
+        <v>6</v>
+      </c>
+      <c r="M237" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N237" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O237" s="7">
+        <v>-25.538598499999999</v>
+      </c>
+      <c r="P237" s="7">
+        <v>-49.263764399999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A238" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="D238" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E238" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G238" s="5">
+        <v>1</v>
+      </c>
+      <c r="H238" s="5">
+        <v>4</v>
+      </c>
+      <c r="I238" s="5">
+        <v>80</v>
+      </c>
+      <c r="J238" s="5">
+        <v>90</v>
+      </c>
+      <c r="K238" s="5">
+        <v>25</v>
+      </c>
+      <c r="L238" s="6">
+        <v>6</v>
+      </c>
+      <c r="M238" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N238" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O238" s="7">
+        <v>-25.5448083</v>
+      </c>
+      <c r="P238" s="7">
+        <v>-49.231129899999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A239" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="D239" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E239" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G239" s="5">
+        <v>1</v>
+      </c>
+      <c r="H239" s="5">
+        <v>4</v>
+      </c>
+      <c r="I239" s="5">
+        <v>80</v>
+      </c>
+      <c r="J239" s="5">
+        <v>90</v>
+      </c>
+      <c r="K239" s="5">
+        <v>25</v>
+      </c>
+      <c r="L239" s="6">
+        <v>6</v>
+      </c>
+      <c r="M239" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N239" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O239" s="7">
+        <v>-25.526055199999998</v>
+      </c>
+      <c r="P239" s="7">
+        <v>-49.263935699999998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A240" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E240" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G240" s="5">
+        <v>1</v>
+      </c>
+      <c r="H240" s="5">
+        <v>4</v>
+      </c>
+      <c r="I240" s="5">
+        <v>80</v>
+      </c>
+      <c r="J240" s="5">
+        <v>90</v>
+      </c>
+      <c r="K240" s="5">
+        <v>25</v>
+      </c>
+      <c r="L240" s="6">
+        <v>6</v>
+      </c>
+      <c r="M240" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N240" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O240" s="7">
+        <v>-25.3815904</v>
+      </c>
+      <c r="P240" s="7">
+        <v>-49.238478200000003</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A241" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="D241" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E241" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G241" s="5">
+        <v>1</v>
+      </c>
+      <c r="H241" s="5">
+        <v>4</v>
+      </c>
+      <c r="I241" s="5">
+        <v>80</v>
+      </c>
+      <c r="J241" s="5">
+        <v>90</v>
+      </c>
+      <c r="K241" s="5">
+        <v>25</v>
+      </c>
+      <c r="L241" s="6">
+        <v>6</v>
+      </c>
+      <c r="M241" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N241" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O241" s="7">
+        <v>-25.528734400000001</v>
+      </c>
+      <c r="P241" s="7">
+        <v>-49.253076100000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A242" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="D242" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E242" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G242" s="5">
+        <v>1</v>
+      </c>
+      <c r="H242" s="5">
+        <v>4</v>
+      </c>
+      <c r="I242" s="5">
+        <v>80</v>
+      </c>
+      <c r="J242" s="5">
+        <v>90</v>
+      </c>
+      <c r="K242" s="5">
+        <v>25</v>
+      </c>
+      <c r="L242" s="6">
+        <v>6</v>
+      </c>
+      <c r="M242" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N242" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O242" s="7">
+        <v>-25.457053699999999</v>
+      </c>
+      <c r="P242" s="7">
+        <v>-49.188119399999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A243" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="D243" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E243" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G243" s="5">
+        <v>1</v>
+      </c>
+      <c r="H243" s="5">
+        <v>4</v>
+      </c>
+      <c r="I243" s="5">
+        <v>80</v>
+      </c>
+      <c r="J243" s="5">
+        <v>90</v>
+      </c>
+      <c r="K243" s="5">
+        <v>25</v>
+      </c>
+      <c r="L243" s="6">
+        <v>6</v>
+      </c>
+      <c r="M243" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N243" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O243" s="7">
+        <v>-25.465902400000001</v>
+      </c>
+      <c r="P243" s="7">
+        <v>-49.360348000000002</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A244" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="D244" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E244" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G244" s="5">
+        <v>1</v>
+      </c>
+      <c r="H244" s="5">
+        <v>4</v>
+      </c>
+      <c r="I244" s="5">
+        <v>80</v>
+      </c>
+      <c r="J244" s="5">
+        <v>90</v>
+      </c>
+      <c r="K244" s="5">
+        <v>25</v>
+      </c>
+      <c r="L244" s="6">
+        <v>6</v>
+      </c>
+      <c r="M244" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N244" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O244" s="7">
+        <v>-25.519062699999999</v>
+      </c>
+      <c r="P244" s="7">
+        <v>-49.371700699999998</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A245" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="D245" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E245" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G245" s="5">
+        <v>1</v>
+      </c>
+      <c r="H245" s="5">
+        <v>4</v>
+      </c>
+      <c r="I245" s="5">
+        <v>80</v>
+      </c>
+      <c r="J245" s="5">
+        <v>90</v>
+      </c>
+      <c r="K245" s="5">
+        <v>25</v>
+      </c>
+      <c r="L245" s="6">
+        <v>6</v>
+      </c>
+      <c r="M245" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N245" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O245" s="7">
+        <v>-25.502418299999999</v>
+      </c>
+      <c r="P245" s="7">
+        <v>-49.313203000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A246" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="D246" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E246" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G246" s="5">
+        <v>1</v>
+      </c>
+      <c r="H246" s="5">
+        <v>4</v>
+      </c>
+      <c r="I246" s="5">
+        <v>80</v>
+      </c>
+      <c r="J246" s="5">
+        <v>90</v>
+      </c>
+      <c r="K246" s="5">
+        <v>25</v>
+      </c>
+      <c r="L246" s="6">
+        <v>6</v>
+      </c>
+      <c r="M246" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N246" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O246" s="7">
+        <v>-25.521560900000001</v>
+      </c>
+      <c r="P246" s="7">
+        <v>-49.310158199999996</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A247" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="D247" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E247" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G247" s="5">
+        <v>1</v>
+      </c>
+      <c r="H247" s="5">
+        <v>4</v>
+      </c>
+      <c r="I247" s="5">
+        <v>80</v>
+      </c>
+      <c r="J247" s="5">
+        <v>90</v>
+      </c>
+      <c r="K247" s="5">
+        <v>25</v>
+      </c>
+      <c r="L247" s="6">
+        <v>6</v>
+      </c>
+      <c r="M247" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N247" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O247" s="7">
+        <v>-25.548079900000001</v>
+      </c>
+      <c r="P247" s="7">
+        <v>-49.235788100000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A248" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="D248" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E248" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G248" s="5">
+        <v>1</v>
+      </c>
+      <c r="H248" s="5">
+        <v>4</v>
+      </c>
+      <c r="I248" s="5">
+        <v>80</v>
+      </c>
+      <c r="J248" s="5">
+        <v>90</v>
+      </c>
+      <c r="K248" s="5">
+        <v>25</v>
+      </c>
+      <c r="L248" s="6">
+        <v>6</v>
+      </c>
+      <c r="M248" s="7">
+        <v>-25.490687999999999</v>
+      </c>
+      <c r="N248" s="7">
+        <v>-49.345876400000002</v>
+      </c>
+      <c r="O248" s="7">
+        <v>-25.587624900000002</v>
+      </c>
+      <c r="P248" s="7">
+        <v>-49.363160499999999</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:P88" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Dataset_Rotas_BI.xlsx
+++ b/Dataset_Rotas_BI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mundimed-10\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1F3944-3163-43FA-8C3B-636C78DA9CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809EECC0-B9F7-435F-8B21-BCB67E07D9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2835" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2040,11 +2040,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O251"/>
+  <dimension ref="A1:O248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F249" sqref="F249"/>
+      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H246" sqref="H246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,9 +2137,7 @@
       <c r="I2" s="5">
         <v>90</v>
       </c>
-      <c r="J2" s="5">
-        <v>25</v>
-      </c>
+      <c r="J2" s="5"/>
       <c r="K2" s="6">
         <v>6</v>
       </c>
@@ -2181,9 +2179,7 @@
       <c r="I3" s="5">
         <v>90</v>
       </c>
-      <c r="J3" s="5">
-        <v>25</v>
-      </c>
+      <c r="J3" s="5"/>
       <c r="K3" s="6">
         <v>6</v>
       </c>
@@ -2224,9 +2220,7 @@
       <c r="I4" s="5">
         <v>90</v>
       </c>
-      <c r="J4" s="5">
-        <v>25</v>
-      </c>
+      <c r="J4" s="5"/>
       <c r="K4" s="6">
         <v>6</v>
       </c>
@@ -2267,9 +2261,7 @@
       <c r="I5" s="5">
         <v>90</v>
       </c>
-      <c r="J5" s="5">
-        <v>25</v>
-      </c>
+      <c r="J5" s="5"/>
       <c r="K5" s="6">
         <v>6</v>
       </c>
@@ -2310,9 +2302,7 @@
       <c r="I6" s="5">
         <v>90</v>
       </c>
-      <c r="J6" s="5">
-        <v>25</v>
-      </c>
+      <c r="J6" s="5"/>
       <c r="K6" s="6">
         <v>6</v>
       </c>
@@ -2353,9 +2343,7 @@
       <c r="I7" s="5">
         <v>90</v>
       </c>
-      <c r="J7" s="5">
-        <v>25</v>
-      </c>
+      <c r="J7" s="5"/>
       <c r="K7" s="6">
         <v>6</v>
       </c>
@@ -2396,9 +2384,7 @@
       <c r="I8" s="5">
         <v>90</v>
       </c>
-      <c r="J8" s="5">
-        <v>25</v>
-      </c>
+      <c r="J8" s="5"/>
       <c r="K8" s="6">
         <v>6</v>
       </c>
@@ -2439,9 +2425,7 @@
       <c r="I9" s="9">
         <v>90</v>
       </c>
-      <c r="J9" s="9">
-        <v>25</v>
-      </c>
+      <c r="J9" s="9"/>
       <c r="K9" s="10">
         <v>6</v>
       </c>
@@ -2482,9 +2466,7 @@
       <c r="I10" s="5">
         <v>90</v>
       </c>
-      <c r="J10" s="5">
-        <v>25</v>
-      </c>
+      <c r="J10" s="5"/>
       <c r="K10" s="6">
         <v>6</v>
       </c>
@@ -2525,9 +2507,7 @@
       <c r="I11" s="5">
         <v>90</v>
       </c>
-      <c r="J11" s="5">
-        <v>25</v>
-      </c>
+      <c r="J11" s="5"/>
       <c r="K11" s="6">
         <v>6</v>
       </c>
@@ -2568,9 +2548,7 @@
       <c r="I12" s="5">
         <v>90</v>
       </c>
-      <c r="J12" s="5">
-        <v>25</v>
-      </c>
+      <c r="J12" s="5"/>
       <c r="K12" s="6">
         <v>6</v>
       </c>
@@ -2611,9 +2589,7 @@
       <c r="I13" s="5">
         <v>90</v>
       </c>
-      <c r="J13" s="5">
-        <v>25</v>
-      </c>
+      <c r="J13" s="5"/>
       <c r="K13" s="6">
         <v>6</v>
       </c>
@@ -2654,9 +2630,7 @@
       <c r="I14" s="5">
         <v>90</v>
       </c>
-      <c r="J14" s="5">
-        <v>25</v>
-      </c>
+      <c r="J14" s="5"/>
       <c r="K14" s="6">
         <v>6</v>
       </c>
@@ -2697,9 +2671,7 @@
       <c r="I15" s="5">
         <v>90</v>
       </c>
-      <c r="J15" s="5">
-        <v>25</v>
-      </c>
+      <c r="J15" s="5"/>
       <c r="K15" s="6">
         <v>6</v>
       </c>
@@ -2740,9 +2712,7 @@
       <c r="I16" s="5">
         <v>90</v>
       </c>
-      <c r="J16" s="5">
-        <v>25</v>
-      </c>
+      <c r="J16" s="5"/>
       <c r="K16" s="6">
         <v>6</v>
       </c>
@@ -2783,9 +2753,7 @@
       <c r="I17" s="5">
         <v>90</v>
       </c>
-      <c r="J17" s="5">
-        <v>25</v>
-      </c>
+      <c r="J17" s="5"/>
       <c r="K17" s="6">
         <v>6</v>
       </c>
@@ -2826,9 +2794,7 @@
       <c r="I18" s="5">
         <v>90</v>
       </c>
-      <c r="J18" s="5">
-        <v>25</v>
-      </c>
+      <c r="J18" s="5"/>
       <c r="K18" s="6">
         <v>6</v>
       </c>
@@ -2869,9 +2835,7 @@
       <c r="I19" s="9">
         <v>90</v>
       </c>
-      <c r="J19" s="9">
-        <v>25</v>
-      </c>
+      <c r="J19" s="9"/>
       <c r="K19" s="10">
         <v>6</v>
       </c>
@@ -2912,9 +2876,7 @@
       <c r="I20" s="5">
         <v>90</v>
       </c>
-      <c r="J20" s="5">
-        <v>25</v>
-      </c>
+      <c r="J20" s="5"/>
       <c r="K20" s="6">
         <v>6</v>
       </c>
@@ -2955,9 +2917,7 @@
       <c r="I21" s="5">
         <v>90</v>
       </c>
-      <c r="J21" s="5">
-        <v>25</v>
-      </c>
+      <c r="J21" s="5"/>
       <c r="K21" s="6">
         <v>6</v>
       </c>
@@ -2998,9 +2958,7 @@
       <c r="I22" s="5">
         <v>90</v>
       </c>
-      <c r="J22" s="5">
-        <v>25</v>
-      </c>
+      <c r="J22" s="5"/>
       <c r="K22" s="6">
         <v>6</v>
       </c>
@@ -3041,9 +2999,7 @@
       <c r="I23" s="5">
         <v>90</v>
       </c>
-      <c r="J23" s="5">
-        <v>25</v>
-      </c>
+      <c r="J23" s="5"/>
       <c r="K23" s="6">
         <v>6</v>
       </c>
@@ -3084,9 +3040,7 @@
       <c r="I24" s="5">
         <v>90</v>
       </c>
-      <c r="J24" s="5">
-        <v>25</v>
-      </c>
+      <c r="J24" s="5"/>
       <c r="K24" s="6">
         <v>6</v>
       </c>
@@ -3127,9 +3081,7 @@
       <c r="I25" s="5">
         <v>90</v>
       </c>
-      <c r="J25" s="5">
-        <v>25</v>
-      </c>
+      <c r="J25" s="5"/>
       <c r="K25" s="6">
         <v>6</v>
       </c>
@@ -3170,9 +3122,7 @@
       <c r="I26" s="5">
         <v>90</v>
       </c>
-      <c r="J26" s="5">
-        <v>25</v>
-      </c>
+      <c r="J26" s="5"/>
       <c r="K26" s="6">
         <v>6</v>
       </c>
@@ -3213,9 +3163,7 @@
       <c r="I27" s="5">
         <v>90</v>
       </c>
-      <c r="J27" s="5">
-        <v>25</v>
-      </c>
+      <c r="J27" s="5"/>
       <c r="K27" s="6">
         <v>6</v>
       </c>
@@ -3256,9 +3204,7 @@
       <c r="I28" s="5">
         <v>90</v>
       </c>
-      <c r="J28" s="5">
-        <v>25</v>
-      </c>
+      <c r="J28" s="5"/>
       <c r="K28" s="6">
         <v>6</v>
       </c>
@@ -3299,9 +3245,7 @@
       <c r="I29" s="9">
         <v>90</v>
       </c>
-      <c r="J29" s="9">
-        <v>25</v>
-      </c>
+      <c r="J29" s="9"/>
       <c r="K29" s="10">
         <v>6</v>
       </c>
@@ -3342,9 +3286,7 @@
       <c r="I30" s="5">
         <v>90</v>
       </c>
-      <c r="J30" s="5">
-        <v>25</v>
-      </c>
+      <c r="J30" s="5"/>
       <c r="K30" s="6">
         <v>6</v>
       </c>
@@ -3385,9 +3327,7 @@
       <c r="I31" s="5">
         <v>90</v>
       </c>
-      <c r="J31" s="5">
-        <v>25</v>
-      </c>
+      <c r="J31" s="5"/>
       <c r="K31" s="6">
         <v>6</v>
       </c>
@@ -3428,9 +3368,7 @@
       <c r="I32" s="5">
         <v>90</v>
       </c>
-      <c r="J32" s="5">
-        <v>25</v>
-      </c>
+      <c r="J32" s="5"/>
       <c r="K32" s="6">
         <v>6</v>
       </c>
@@ -3471,9 +3409,7 @@
       <c r="I33" s="5">
         <v>90</v>
       </c>
-      <c r="J33" s="5">
-        <v>25</v>
-      </c>
+      <c r="J33" s="5"/>
       <c r="K33" s="6">
         <v>6</v>
       </c>
@@ -3514,9 +3450,7 @@
       <c r="I34" s="5">
         <v>90</v>
       </c>
-      <c r="J34" s="5">
-        <v>25</v>
-      </c>
+      <c r="J34" s="5"/>
       <c r="K34" s="6">
         <v>6</v>
       </c>
@@ -3557,9 +3491,7 @@
       <c r="I35" s="5">
         <v>90</v>
       </c>
-      <c r="J35" s="5">
-        <v>25</v>
-      </c>
+      <c r="J35" s="5"/>
       <c r="K35" s="6">
         <v>6</v>
       </c>
@@ -3600,9 +3532,7 @@
       <c r="I36" s="5">
         <v>90</v>
       </c>
-      <c r="J36" s="5">
-        <v>25</v>
-      </c>
+      <c r="J36" s="5"/>
       <c r="K36" s="6">
         <v>6</v>
       </c>
@@ -3643,9 +3573,7 @@
       <c r="I37" s="5">
         <v>90</v>
       </c>
-      <c r="J37" s="5">
-        <v>25</v>
-      </c>
+      <c r="J37" s="5"/>
       <c r="K37" s="6">
         <v>6</v>
       </c>
@@ -3686,9 +3614,7 @@
       <c r="I38" s="5">
         <v>90</v>
       </c>
-      <c r="J38" s="5">
-        <v>25</v>
-      </c>
+      <c r="J38" s="5"/>
       <c r="K38" s="6">
         <v>6</v>
       </c>
@@ -3729,9 +3655,7 @@
       <c r="I39" s="5">
         <v>90</v>
       </c>
-      <c r="J39" s="5">
-        <v>25</v>
-      </c>
+      <c r="J39" s="5"/>
       <c r="K39" s="6">
         <v>6</v>
       </c>
@@ -3772,9 +3696,7 @@
       <c r="I40" s="5">
         <v>90</v>
       </c>
-      <c r="J40" s="5">
-        <v>25</v>
-      </c>
+      <c r="J40" s="5"/>
       <c r="K40" s="6">
         <v>6</v>
       </c>
@@ -3815,9 +3737,7 @@
       <c r="I41" s="5">
         <v>90</v>
       </c>
-      <c r="J41" s="5">
-        <v>25</v>
-      </c>
+      <c r="J41" s="5"/>
       <c r="K41" s="6">
         <v>6</v>
       </c>
@@ -3858,9 +3778,7 @@
       <c r="I42" s="5">
         <v>90</v>
       </c>
-      <c r="J42" s="5">
-        <v>25</v>
-      </c>
+      <c r="J42" s="5"/>
       <c r="K42" s="6">
         <v>6</v>
       </c>
@@ -3901,9 +3819,7 @@
       <c r="I43" s="5">
         <v>90</v>
       </c>
-      <c r="J43" s="5">
-        <v>25</v>
-      </c>
+      <c r="J43" s="5"/>
       <c r="K43" s="6">
         <v>6</v>
       </c>
@@ -3944,9 +3860,7 @@
       <c r="I44" s="5">
         <v>90</v>
       </c>
-      <c r="J44" s="5">
-        <v>25</v>
-      </c>
+      <c r="J44" s="5"/>
       <c r="K44" s="6">
         <v>6</v>
       </c>
@@ -3987,9 +3901,7 @@
       <c r="I45" s="5">
         <v>90</v>
       </c>
-      <c r="J45" s="5">
-        <v>25</v>
-      </c>
+      <c r="J45" s="5"/>
       <c r="K45" s="6">
         <v>6</v>
       </c>
@@ -4030,9 +3942,7 @@
       <c r="I46" s="5">
         <v>90</v>
       </c>
-      <c r="J46" s="5">
-        <v>25</v>
-      </c>
+      <c r="J46" s="5"/>
       <c r="K46" s="6">
         <v>6</v>
       </c>
@@ -4073,9 +3983,7 @@
       <c r="I47" s="5">
         <v>90</v>
       </c>
-      <c r="J47" s="5">
-        <v>25</v>
-      </c>
+      <c r="J47" s="5"/>
       <c r="K47" s="6">
         <v>6</v>
       </c>
@@ -4116,9 +4024,7 @@
       <c r="I48" s="5">
         <v>90</v>
       </c>
-      <c r="J48" s="5">
-        <v>25</v>
-      </c>
+      <c r="J48" s="5"/>
       <c r="K48" s="6">
         <v>6</v>
       </c>
@@ -4159,9 +4065,7 @@
       <c r="I49" s="5">
         <v>90</v>
       </c>
-      <c r="J49" s="5">
-        <v>25</v>
-      </c>
+      <c r="J49" s="5"/>
       <c r="K49" s="6">
         <v>6</v>
       </c>
@@ -4202,9 +4106,7 @@
       <c r="I50" s="5">
         <v>90</v>
       </c>
-      <c r="J50" s="5">
-        <v>25</v>
-      </c>
+      <c r="J50" s="5"/>
       <c r="K50" s="6">
         <v>6</v>
       </c>
@@ -4245,9 +4147,7 @@
       <c r="I51" s="5">
         <v>90</v>
       </c>
-      <c r="J51" s="5">
-        <v>25</v>
-      </c>
+      <c r="J51" s="5"/>
       <c r="K51" s="6">
         <v>6</v>
       </c>
@@ -4288,9 +4188,7 @@
       <c r="I52" s="5">
         <v>90</v>
       </c>
-      <c r="J52" s="5">
-        <v>25</v>
-      </c>
+      <c r="J52" s="5"/>
       <c r="K52" s="6">
         <v>6</v>
       </c>
@@ -4331,9 +4229,7 @@
       <c r="I53" s="5">
         <v>90</v>
       </c>
-      <c r="J53" s="5">
-        <v>25</v>
-      </c>
+      <c r="J53" s="5"/>
       <c r="K53" s="6">
         <v>6</v>
       </c>
@@ -4374,9 +4270,7 @@
       <c r="I54" s="5">
         <v>90</v>
       </c>
-      <c r="J54" s="5">
-        <v>25</v>
-      </c>
+      <c r="J54" s="5"/>
       <c r="K54" s="6">
         <v>6</v>
       </c>
@@ -4417,9 +4311,7 @@
       <c r="I55" s="5">
         <v>90</v>
       </c>
-      <c r="J55" s="5">
-        <v>25</v>
-      </c>
+      <c r="J55" s="5"/>
       <c r="K55" s="6">
         <v>6</v>
       </c>
@@ -4460,9 +4352,7 @@
       <c r="I56" s="5">
         <v>90</v>
       </c>
-      <c r="J56" s="5">
-        <v>25</v>
-      </c>
+      <c r="J56" s="5"/>
       <c r="K56" s="6">
         <v>6</v>
       </c>
@@ -4503,9 +4393,7 @@
       <c r="I57" s="5">
         <v>90</v>
       </c>
-      <c r="J57" s="5">
-        <v>25</v>
-      </c>
+      <c r="J57" s="5"/>
       <c r="K57" s="6">
         <v>6</v>
       </c>
@@ -4546,9 +4434,7 @@
       <c r="I58" s="5">
         <v>90</v>
       </c>
-      <c r="J58" s="5">
-        <v>25</v>
-      </c>
+      <c r="J58" s="5"/>
       <c r="K58" s="6">
         <v>6</v>
       </c>
@@ -4589,9 +4475,7 @@
       <c r="I59" s="5">
         <v>90</v>
       </c>
-      <c r="J59" s="5">
-        <v>25</v>
-      </c>
+      <c r="J59" s="5"/>
       <c r="K59" s="6">
         <v>6</v>
       </c>
@@ -4632,9 +4516,7 @@
       <c r="I60" s="5">
         <v>90</v>
       </c>
-      <c r="J60" s="5">
-        <v>25</v>
-      </c>
+      <c r="J60" s="5"/>
       <c r="K60" s="6">
         <v>6</v>
       </c>
@@ -4675,9 +4557,7 @@
       <c r="I61" s="5">
         <v>90</v>
       </c>
-      <c r="J61" s="5">
-        <v>25</v>
-      </c>
+      <c r="J61" s="5"/>
       <c r="K61" s="6">
         <v>6</v>
       </c>
@@ -4718,9 +4598,7 @@
       <c r="I62" s="5">
         <v>90</v>
       </c>
-      <c r="J62" s="5">
-        <v>25</v>
-      </c>
+      <c r="J62" s="5"/>
       <c r="K62" s="6">
         <v>6</v>
       </c>
@@ -4761,9 +4639,7 @@
       <c r="I63" s="5">
         <v>90</v>
       </c>
-      <c r="J63" s="5">
-        <v>25</v>
-      </c>
+      <c r="J63" s="5"/>
       <c r="K63" s="6">
         <v>6</v>
       </c>
@@ -4804,9 +4680,7 @@
       <c r="I64" s="5">
         <v>90</v>
       </c>
-      <c r="J64" s="5">
-        <v>25</v>
-      </c>
+      <c r="J64" s="5"/>
       <c r="K64" s="6">
         <v>6</v>
       </c>
@@ -4847,9 +4721,7 @@
       <c r="I65" s="5">
         <v>90</v>
       </c>
-      <c r="J65" s="5">
-        <v>25</v>
-      </c>
+      <c r="J65" s="5"/>
       <c r="K65" s="6">
         <v>6</v>
       </c>
@@ -4890,9 +4762,7 @@
       <c r="I66" s="5">
         <v>90</v>
       </c>
-      <c r="J66" s="5">
-        <v>25</v>
-      </c>
+      <c r="J66" s="5"/>
       <c r="K66" s="6">
         <v>6</v>
       </c>
@@ -4933,9 +4803,7 @@
       <c r="I67" s="5">
         <v>90</v>
       </c>
-      <c r="J67" s="5">
-        <v>25</v>
-      </c>
+      <c r="J67" s="5"/>
       <c r="K67" s="6">
         <v>6</v>
       </c>
@@ -4976,9 +4844,7 @@
       <c r="I68" s="5">
         <v>90</v>
       </c>
-      <c r="J68" s="5">
-        <v>25</v>
-      </c>
+      <c r="J68" s="5"/>
       <c r="K68" s="6">
         <v>6</v>
       </c>
@@ -5019,9 +4885,7 @@
       <c r="I69" s="5">
         <v>90</v>
       </c>
-      <c r="J69" s="5">
-        <v>25</v>
-      </c>
+      <c r="J69" s="5"/>
       <c r="K69" s="6">
         <v>6</v>
       </c>
@@ -5062,9 +4926,7 @@
       <c r="I70" s="5">
         <v>90</v>
       </c>
-      <c r="J70" s="5">
-        <v>25</v>
-      </c>
+      <c r="J70" s="5"/>
       <c r="K70" s="6">
         <v>6</v>
       </c>
@@ -5105,9 +4967,7 @@
       <c r="I71" s="5">
         <v>90</v>
       </c>
-      <c r="J71" s="5">
-        <v>25</v>
-      </c>
+      <c r="J71" s="5"/>
       <c r="K71" s="6">
         <v>6</v>
       </c>
@@ -5148,9 +5008,7 @@
       <c r="I72" s="5">
         <v>90</v>
       </c>
-      <c r="J72" s="5">
-        <v>25</v>
-      </c>
+      <c r="J72" s="5"/>
       <c r="K72" s="6">
         <v>6</v>
       </c>
@@ -5191,9 +5049,7 @@
       <c r="I73" s="5">
         <v>90</v>
       </c>
-      <c r="J73" s="5">
-        <v>25</v>
-      </c>
+      <c r="J73" s="5"/>
       <c r="K73" s="6">
         <v>6</v>
       </c>
@@ -5234,9 +5090,7 @@
       <c r="I74" s="5">
         <v>90</v>
       </c>
-      <c r="J74" s="5">
-        <v>25</v>
-      </c>
+      <c r="J74" s="5"/>
       <c r="K74" s="6">
         <v>6</v>
       </c>
@@ -5277,9 +5131,7 @@
       <c r="I75" s="5">
         <v>90</v>
       </c>
-      <c r="J75" s="5">
-        <v>25</v>
-      </c>
+      <c r="J75" s="5"/>
       <c r="K75" s="6">
         <v>6</v>
       </c>
@@ -5320,9 +5172,7 @@
       <c r="I76" s="5">
         <v>90</v>
       </c>
-      <c r="J76" s="5">
-        <v>25</v>
-      </c>
+      <c r="J76" s="5"/>
       <c r="K76" s="6">
         <v>6</v>
       </c>
@@ -5363,9 +5213,7 @@
       <c r="I77" s="5">
         <v>90</v>
       </c>
-      <c r="J77" s="5">
-        <v>25</v>
-      </c>
+      <c r="J77" s="5"/>
       <c r="K77" s="6">
         <v>6</v>
       </c>
@@ -5406,9 +5254,7 @@
       <c r="I78" s="5">
         <v>90</v>
       </c>
-      <c r="J78" s="5">
-        <v>25</v>
-      </c>
+      <c r="J78" s="5"/>
       <c r="K78" s="6">
         <v>6</v>
       </c>
@@ -5449,9 +5295,7 @@
       <c r="I79" s="5">
         <v>90</v>
       </c>
-      <c r="J79" s="5">
-        <v>25</v>
-      </c>
+      <c r="J79" s="5"/>
       <c r="K79" s="6">
         <v>6</v>
       </c>
@@ -5492,9 +5336,7 @@
       <c r="I80" s="5">
         <v>90</v>
       </c>
-      <c r="J80" s="5">
-        <v>25</v>
-      </c>
+      <c r="J80" s="5"/>
       <c r="K80" s="6">
         <v>6</v>
       </c>
@@ -5535,9 +5377,7 @@
       <c r="I81" s="5">
         <v>90</v>
       </c>
-      <c r="J81" s="5">
-        <v>25</v>
-      </c>
+      <c r="J81" s="5"/>
       <c r="K81" s="6">
         <v>6</v>
       </c>
@@ -5578,9 +5418,7 @@
       <c r="I82" s="5">
         <v>90</v>
       </c>
-      <c r="J82" s="5">
-        <v>25</v>
-      </c>
+      <c r="J82" s="5"/>
       <c r="K82" s="6">
         <v>6</v>
       </c>
@@ -5621,9 +5459,7 @@
       <c r="I83" s="5">
         <v>90</v>
       </c>
-      <c r="J83" s="5">
-        <v>25</v>
-      </c>
+      <c r="J83" s="5"/>
       <c r="K83" s="6">
         <v>6</v>
       </c>
@@ -5664,9 +5500,7 @@
       <c r="I84" s="5">
         <v>90</v>
       </c>
-      <c r="J84" s="5">
-        <v>25</v>
-      </c>
+      <c r="J84" s="5"/>
       <c r="K84" s="6">
         <v>6</v>
       </c>
@@ -5707,9 +5541,7 @@
       <c r="I85" s="5">
         <v>90</v>
       </c>
-      <c r="J85" s="5">
-        <v>25</v>
-      </c>
+      <c r="J85" s="5"/>
       <c r="K85" s="6">
         <v>6</v>
       </c>
@@ -5750,9 +5582,7 @@
       <c r="I86" s="5">
         <v>90</v>
       </c>
-      <c r="J86" s="5">
-        <v>25</v>
-      </c>
+      <c r="J86" s="5"/>
       <c r="K86" s="6">
         <v>6</v>
       </c>
@@ -5793,9 +5623,7 @@
       <c r="I87" s="5">
         <v>90</v>
       </c>
-      <c r="J87" s="5">
-        <v>25</v>
-      </c>
+      <c r="J87" s="5"/>
       <c r="K87" s="6">
         <v>6</v>
       </c>
@@ -5836,9 +5664,7 @@
       <c r="I88" s="5">
         <v>90</v>
       </c>
-      <c r="J88" s="5">
-        <v>25</v>
-      </c>
+      <c r="J88" s="5"/>
       <c r="K88" s="6">
         <v>6</v>
       </c>
@@ -5879,9 +5705,7 @@
       <c r="I89" s="5">
         <v>90</v>
       </c>
-      <c r="J89" s="5">
-        <v>25</v>
-      </c>
+      <c r="J89" s="5"/>
       <c r="K89" s="6">
         <v>6</v>
       </c>
@@ -5922,9 +5746,7 @@
       <c r="I90" s="5">
         <v>90</v>
       </c>
-      <c r="J90" s="5">
-        <v>25</v>
-      </c>
+      <c r="J90" s="5"/>
       <c r="K90" s="6">
         <v>6</v>
       </c>
@@ -5965,9 +5787,7 @@
       <c r="I91" s="5">
         <v>90</v>
       </c>
-      <c r="J91" s="5">
-        <v>25</v>
-      </c>
+      <c r="J91" s="5"/>
       <c r="K91" s="6">
         <v>6</v>
       </c>
@@ -6008,9 +5828,7 @@
       <c r="I92" s="5">
         <v>90</v>
       </c>
-      <c r="J92" s="5">
-        <v>25</v>
-      </c>
+      <c r="J92" s="5"/>
       <c r="K92" s="6">
         <v>6</v>
       </c>
@@ -6051,9 +5869,7 @@
       <c r="I93" s="5">
         <v>90</v>
       </c>
-      <c r="J93" s="5">
-        <v>25</v>
-      </c>
+      <c r="J93" s="5"/>
       <c r="K93" s="6">
         <v>6</v>
       </c>
@@ -6094,9 +5910,7 @@
       <c r="I94" s="5">
         <v>90</v>
       </c>
-      <c r="J94" s="5">
-        <v>25</v>
-      </c>
+      <c r="J94" s="5"/>
       <c r="K94" s="6">
         <v>6</v>
       </c>
@@ -6137,9 +5951,7 @@
       <c r="I95" s="5">
         <v>90</v>
       </c>
-      <c r="J95" s="5">
-        <v>25</v>
-      </c>
+      <c r="J95" s="5"/>
       <c r="K95" s="6">
         <v>6</v>
       </c>
@@ -6180,9 +5992,7 @@
       <c r="I96" s="5">
         <v>90</v>
       </c>
-      <c r="J96" s="5">
-        <v>25</v>
-      </c>
+      <c r="J96" s="5"/>
       <c r="K96" s="6">
         <v>6</v>
       </c>
@@ -6223,9 +6033,7 @@
       <c r="I97" s="5">
         <v>90</v>
       </c>
-      <c r="J97" s="5">
-        <v>25</v>
-      </c>
+      <c r="J97" s="5"/>
       <c r="K97" s="6">
         <v>6</v>
       </c>
@@ -6266,9 +6074,7 @@
       <c r="I98" s="5">
         <v>90</v>
       </c>
-      <c r="J98" s="5">
-        <v>25</v>
-      </c>
+      <c r="J98" s="5"/>
       <c r="K98" s="6">
         <v>6</v>
       </c>
@@ -6309,9 +6115,7 @@
       <c r="I99" s="5">
         <v>90</v>
       </c>
-      <c r="J99" s="5">
-        <v>25</v>
-      </c>
+      <c r="J99" s="5"/>
       <c r="K99" s="6">
         <v>6</v>
       </c>
@@ -6352,9 +6156,7 @@
       <c r="I100" s="5">
         <v>90</v>
       </c>
-      <c r="J100" s="5">
-        <v>25</v>
-      </c>
+      <c r="J100" s="5"/>
       <c r="K100" s="6">
         <v>6</v>
       </c>
@@ -6395,9 +6197,7 @@
       <c r="I101" s="5">
         <v>90</v>
       </c>
-      <c r="J101" s="5">
-        <v>25</v>
-      </c>
+      <c r="J101" s="5"/>
       <c r="K101" s="6">
         <v>6</v>
       </c>
@@ -6438,9 +6238,7 @@
       <c r="I102" s="5">
         <v>90</v>
       </c>
-      <c r="J102" s="5">
-        <v>25</v>
-      </c>
+      <c r="J102" s="5"/>
       <c r="K102" s="6">
         <v>6</v>
       </c>
@@ -6481,9 +6279,7 @@
       <c r="I103" s="5">
         <v>90</v>
       </c>
-      <c r="J103" s="5">
-        <v>25</v>
-      </c>
+      <c r="J103" s="5"/>
       <c r="K103" s="6">
         <v>6</v>
       </c>
@@ -6524,9 +6320,7 @@
       <c r="I104" s="5">
         <v>90</v>
       </c>
-      <c r="J104" s="5">
-        <v>25</v>
-      </c>
+      <c r="J104" s="5"/>
       <c r="K104" s="6">
         <v>6</v>
       </c>
@@ -6567,9 +6361,7 @@
       <c r="I105" s="5">
         <v>90</v>
       </c>
-      <c r="J105" s="5">
-        <v>25</v>
-      </c>
+      <c r="J105" s="5"/>
       <c r="K105" s="6">
         <v>6</v>
       </c>
@@ -6610,9 +6402,7 @@
       <c r="I106" s="5">
         <v>90</v>
       </c>
-      <c r="J106" s="5">
-        <v>25</v>
-      </c>
+      <c r="J106" s="5"/>
       <c r="K106" s="6">
         <v>6</v>
       </c>
@@ -6653,9 +6443,7 @@
       <c r="I107" s="5">
         <v>90</v>
       </c>
-      <c r="J107" s="5">
-        <v>25</v>
-      </c>
+      <c r="J107" s="5"/>
       <c r="K107" s="6">
         <v>6</v>
       </c>
@@ -6696,9 +6484,7 @@
       <c r="I108" s="5">
         <v>90</v>
       </c>
-      <c r="J108" s="5">
-        <v>25</v>
-      </c>
+      <c r="J108" s="5"/>
       <c r="K108" s="6">
         <v>6</v>
       </c>
@@ -6739,9 +6525,7 @@
       <c r="I109" s="5">
         <v>90</v>
       </c>
-      <c r="J109" s="5">
-        <v>25</v>
-      </c>
+      <c r="J109" s="5"/>
       <c r="K109" s="6">
         <v>6</v>
       </c>
@@ -6782,9 +6566,7 @@
       <c r="I110" s="5">
         <v>90</v>
       </c>
-      <c r="J110" s="5">
-        <v>25</v>
-      </c>
+      <c r="J110" s="5"/>
       <c r="K110" s="6">
         <v>6</v>
       </c>
@@ -6825,9 +6607,7 @@
       <c r="I111" s="5">
         <v>90</v>
       </c>
-      <c r="J111" s="5">
-        <v>25</v>
-      </c>
+      <c r="J111" s="5"/>
       <c r="K111" s="6">
         <v>6</v>
       </c>
@@ -6868,9 +6648,7 @@
       <c r="I112" s="5">
         <v>90</v>
       </c>
-      <c r="J112" s="5">
-        <v>25</v>
-      </c>
+      <c r="J112" s="5"/>
       <c r="K112" s="6">
         <v>6</v>
       </c>
@@ -6911,9 +6689,7 @@
       <c r="I113" s="5">
         <v>90</v>
       </c>
-      <c r="J113" s="5">
-        <v>25</v>
-      </c>
+      <c r="J113" s="5"/>
       <c r="K113" s="6">
         <v>6</v>
       </c>
@@ -6954,9 +6730,7 @@
       <c r="I114" s="5">
         <v>90</v>
       </c>
-      <c r="J114" s="5">
-        <v>25</v>
-      </c>
+      <c r="J114" s="5"/>
       <c r="K114" s="6">
         <v>6</v>
       </c>
@@ -6997,9 +6771,7 @@
       <c r="I115" s="5">
         <v>90</v>
       </c>
-      <c r="J115" s="5">
-        <v>25</v>
-      </c>
+      <c r="J115" s="5"/>
       <c r="K115" s="6">
         <v>6</v>
       </c>
@@ -7040,9 +6812,7 @@
       <c r="I116" s="5">
         <v>90</v>
       </c>
-      <c r="J116" s="5">
-        <v>25</v>
-      </c>
+      <c r="J116" s="5"/>
       <c r="K116" s="6">
         <v>6</v>
       </c>
@@ -7083,9 +6853,7 @@
       <c r="I117" s="5">
         <v>90</v>
       </c>
-      <c r="J117" s="5">
-        <v>25</v>
-      </c>
+      <c r="J117" s="5"/>
       <c r="K117" s="6">
         <v>6</v>
       </c>
@@ -7126,9 +6894,7 @@
       <c r="I118" s="5">
         <v>90</v>
       </c>
-      <c r="J118" s="5">
-        <v>25</v>
-      </c>
+      <c r="J118" s="5"/>
       <c r="K118" s="6">
         <v>6</v>
       </c>
@@ -7169,9 +6935,7 @@
       <c r="I119" s="5">
         <v>90</v>
       </c>
-      <c r="J119" s="5">
-        <v>25</v>
-      </c>
+      <c r="J119" s="5"/>
       <c r="K119" s="6">
         <v>6</v>
       </c>
@@ -7212,9 +6976,7 @@
       <c r="I120" s="5">
         <v>90</v>
       </c>
-      <c r="J120" s="5">
-        <v>25</v>
-      </c>
+      <c r="J120" s="5"/>
       <c r="K120" s="6">
         <v>6</v>
       </c>
@@ -7255,9 +7017,7 @@
       <c r="I121" s="5">
         <v>90</v>
       </c>
-      <c r="J121" s="5">
-        <v>25</v>
-      </c>
+      <c r="J121" s="5"/>
       <c r="K121" s="6">
         <v>6</v>
       </c>
@@ -7298,9 +7058,7 @@
       <c r="I122" s="5">
         <v>90</v>
       </c>
-      <c r="J122" s="5">
-        <v>25</v>
-      </c>
+      <c r="J122" s="5"/>
       <c r="K122" s="6">
         <v>6</v>
       </c>
@@ -7341,9 +7099,7 @@
       <c r="I123" s="5">
         <v>90</v>
       </c>
-      <c r="J123" s="5">
-        <v>25</v>
-      </c>
+      <c r="J123" s="5"/>
       <c r="K123" s="6">
         <v>6</v>
       </c>
@@ -7384,9 +7140,7 @@
       <c r="I124" s="5">
         <v>90</v>
       </c>
-      <c r="J124" s="5">
-        <v>25</v>
-      </c>
+      <c r="J124" s="5"/>
       <c r="K124" s="6">
         <v>6</v>
       </c>
@@ -7427,9 +7181,7 @@
       <c r="I125" s="5">
         <v>90</v>
       </c>
-      <c r="J125" s="5">
-        <v>25</v>
-      </c>
+      <c r="J125" s="5"/>
       <c r="K125" s="6">
         <v>6</v>
       </c>
@@ -7470,9 +7222,7 @@
       <c r="I126" s="5">
         <v>90</v>
       </c>
-      <c r="J126" s="5">
-        <v>25</v>
-      </c>
+      <c r="J126" s="5"/>
       <c r="K126" s="6">
         <v>6</v>
       </c>
@@ -7513,9 +7263,7 @@
       <c r="I127" s="5">
         <v>90</v>
       </c>
-      <c r="J127" s="5">
-        <v>25</v>
-      </c>
+      <c r="J127" s="5"/>
       <c r="K127" s="6">
         <v>6</v>
       </c>
@@ -7556,9 +7304,7 @@
       <c r="I128" s="5">
         <v>90</v>
       </c>
-      <c r="J128" s="5">
-        <v>25</v>
-      </c>
+      <c r="J128" s="5"/>
       <c r="K128" s="6">
         <v>6</v>
       </c>
@@ -7599,9 +7345,7 @@
       <c r="I129" s="5">
         <v>90</v>
       </c>
-      <c r="J129" s="5">
-        <v>25</v>
-      </c>
+      <c r="J129" s="5"/>
       <c r="K129" s="6">
         <v>6</v>
       </c>
@@ -7642,9 +7386,7 @@
       <c r="I130" s="5">
         <v>90</v>
       </c>
-      <c r="J130" s="5">
-        <v>25</v>
-      </c>
+      <c r="J130" s="5"/>
       <c r="K130" s="6">
         <v>6</v>
       </c>
@@ -7685,9 +7427,7 @@
       <c r="I131" s="5">
         <v>90</v>
       </c>
-      <c r="J131" s="5">
-        <v>25</v>
-      </c>
+      <c r="J131" s="5"/>
       <c r="K131" s="6">
         <v>6</v>
       </c>
@@ -7728,9 +7468,7 @@
       <c r="I132" s="5">
         <v>90</v>
       </c>
-      <c r="J132" s="5">
-        <v>25</v>
-      </c>
+      <c r="J132" s="5"/>
       <c r="K132" s="6">
         <v>6</v>
       </c>
@@ -7771,9 +7509,7 @@
       <c r="I133" s="5">
         <v>90</v>
       </c>
-      <c r="J133" s="5">
-        <v>25</v>
-      </c>
+      <c r="J133" s="5"/>
       <c r="K133" s="6">
         <v>6</v>
       </c>
@@ -7814,9 +7550,7 @@
       <c r="I134" s="5">
         <v>90</v>
       </c>
-      <c r="J134" s="5">
-        <v>25</v>
-      </c>
+      <c r="J134" s="5"/>
       <c r="K134" s="6">
         <v>6</v>
       </c>
@@ -7857,9 +7591,7 @@
       <c r="I135" s="5">
         <v>90</v>
       </c>
-      <c r="J135" s="5">
-        <v>25</v>
-      </c>
+      <c r="J135" s="5"/>
       <c r="K135" s="6">
         <v>6</v>
       </c>
@@ -7900,9 +7632,7 @@
       <c r="I136" s="5">
         <v>90</v>
       </c>
-      <c r="J136" s="5">
-        <v>25</v>
-      </c>
+      <c r="J136" s="5"/>
       <c r="K136" s="6">
         <v>6</v>
       </c>
@@ -7943,9 +7673,7 @@
       <c r="I137" s="5">
         <v>90</v>
       </c>
-      <c r="J137" s="5">
-        <v>25</v>
-      </c>
+      <c r="J137" s="5"/>
       <c r="K137" s="6">
         <v>6</v>
       </c>
@@ -7986,9 +7714,7 @@
       <c r="I138" s="5">
         <v>90</v>
       </c>
-      <c r="J138" s="5">
-        <v>25</v>
-      </c>
+      <c r="J138" s="5"/>
       <c r="K138" s="6">
         <v>6</v>
       </c>
@@ -8029,9 +7755,7 @@
       <c r="I139" s="5">
         <v>90</v>
       </c>
-      <c r="J139" s="5">
-        <v>25</v>
-      </c>
+      <c r="J139" s="5"/>
       <c r="K139" s="6">
         <v>6</v>
       </c>
@@ -8072,9 +7796,7 @@
       <c r="I140" s="5">
         <v>90</v>
       </c>
-      <c r="J140" s="5">
-        <v>25</v>
-      </c>
+      <c r="J140" s="5"/>
       <c r="K140" s="6">
         <v>6</v>
       </c>
@@ -8115,9 +7837,7 @@
       <c r="I141" s="5">
         <v>90</v>
       </c>
-      <c r="J141" s="5">
-        <v>25</v>
-      </c>
+      <c r="J141" s="5"/>
       <c r="K141" s="6">
         <v>6</v>
       </c>
@@ -8158,9 +7878,7 @@
       <c r="I142" s="5">
         <v>90</v>
       </c>
-      <c r="J142" s="5">
-        <v>25</v>
-      </c>
+      <c r="J142" s="5"/>
       <c r="K142" s="6">
         <v>6</v>
       </c>
@@ -8201,9 +7919,7 @@
       <c r="I143" s="5">
         <v>90</v>
       </c>
-      <c r="J143" s="5">
-        <v>25</v>
-      </c>
+      <c r="J143" s="5"/>
       <c r="K143" s="6">
         <v>6</v>
       </c>
@@ -8244,9 +7960,7 @@
       <c r="I144" s="5">
         <v>90</v>
       </c>
-      <c r="J144" s="5">
-        <v>25</v>
-      </c>
+      <c r="J144" s="5"/>
       <c r="K144" s="6">
         <v>6</v>
       </c>
@@ -8287,9 +8001,7 @@
       <c r="I145" s="5">
         <v>90</v>
       </c>
-      <c r="J145" s="5">
-        <v>25</v>
-      </c>
+      <c r="J145" s="5"/>
       <c r="K145" s="6">
         <v>6</v>
       </c>
@@ -8330,9 +8042,7 @@
       <c r="I146" s="5">
         <v>90</v>
       </c>
-      <c r="J146" s="5">
-        <v>25</v>
-      </c>
+      <c r="J146" s="5"/>
       <c r="K146" s="6">
         <v>6</v>
       </c>
@@ -8373,9 +8083,7 @@
       <c r="I147" s="5">
         <v>90</v>
       </c>
-      <c r="J147" s="5">
-        <v>25</v>
-      </c>
+      <c r="J147" s="5"/>
       <c r="K147" s="6">
         <v>6</v>
       </c>
@@ -8416,9 +8124,7 @@
       <c r="I148" s="5">
         <v>90</v>
       </c>
-      <c r="J148" s="5">
-        <v>25</v>
-      </c>
+      <c r="J148" s="5"/>
       <c r="K148" s="6">
         <v>6</v>
       </c>
@@ -8459,9 +8165,7 @@
       <c r="I149" s="5">
         <v>90</v>
       </c>
-      <c r="J149" s="5">
-        <v>25</v>
-      </c>
+      <c r="J149" s="5"/>
       <c r="K149" s="6">
         <v>6</v>
       </c>
@@ -8502,9 +8206,7 @@
       <c r="I150" s="5">
         <v>90</v>
       </c>
-      <c r="J150" s="5">
-        <v>25</v>
-      </c>
+      <c r="J150" s="5"/>
       <c r="K150" s="6">
         <v>6</v>
       </c>
@@ -8545,9 +8247,7 @@
       <c r="I151" s="5">
         <v>90</v>
       </c>
-      <c r="J151" s="5">
-        <v>25</v>
-      </c>
+      <c r="J151" s="5"/>
       <c r="K151" s="6">
         <v>6</v>
       </c>
@@ -8588,9 +8288,7 @@
       <c r="I152" s="5">
         <v>90</v>
       </c>
-      <c r="J152" s="5">
-        <v>25</v>
-      </c>
+      <c r="J152" s="5"/>
       <c r="K152" s="6">
         <v>6</v>
       </c>
@@ -8631,9 +8329,7 @@
       <c r="I153" s="5">
         <v>90</v>
       </c>
-      <c r="J153" s="5">
-        <v>25</v>
-      </c>
+      <c r="J153" s="5"/>
       <c r="K153" s="6">
         <v>6</v>
       </c>
@@ -8674,9 +8370,7 @@
       <c r="I154" s="5">
         <v>90</v>
       </c>
-      <c r="J154" s="5">
-        <v>25</v>
-      </c>
+      <c r="J154" s="5"/>
       <c r="K154" s="6">
         <v>6</v>
       </c>
@@ -8717,9 +8411,7 @@
       <c r="I155" s="5">
         <v>90</v>
       </c>
-      <c r="J155" s="5">
-        <v>25</v>
-      </c>
+      <c r="J155" s="5"/>
       <c r="K155" s="6">
         <v>6</v>
       </c>
@@ -8760,9 +8452,7 @@
       <c r="I156" s="5">
         <v>90</v>
       </c>
-      <c r="J156" s="5">
-        <v>25</v>
-      </c>
+      <c r="J156" s="5"/>
       <c r="K156" s="6">
         <v>6</v>
       </c>
@@ -8803,9 +8493,7 @@
       <c r="I157" s="5">
         <v>90</v>
       </c>
-      <c r="J157" s="5">
-        <v>25</v>
-      </c>
+      <c r="J157" s="5"/>
       <c r="K157" s="6">
         <v>6</v>
       </c>
@@ -8846,9 +8534,7 @@
       <c r="I158" s="5">
         <v>90</v>
       </c>
-      <c r="J158" s="5">
-        <v>25</v>
-      </c>
+      <c r="J158" s="5"/>
       <c r="K158" s="6">
         <v>6</v>
       </c>
@@ -8889,9 +8575,7 @@
       <c r="I159" s="5">
         <v>90</v>
       </c>
-      <c r="J159" s="5">
-        <v>25</v>
-      </c>
+      <c r="J159" s="5"/>
       <c r="K159" s="6">
         <v>6</v>
       </c>
@@ -8932,9 +8616,7 @@
       <c r="I160" s="5">
         <v>90</v>
       </c>
-      <c r="J160" s="5">
-        <v>25</v>
-      </c>
+      <c r="J160" s="5"/>
       <c r="K160" s="6">
         <v>6</v>
       </c>
@@ -8975,9 +8657,7 @@
       <c r="I161" s="5">
         <v>90</v>
       </c>
-      <c r="J161" s="5">
-        <v>25</v>
-      </c>
+      <c r="J161" s="5"/>
       <c r="K161" s="6">
         <v>6</v>
       </c>
@@ -9018,9 +8698,7 @@
       <c r="I162" s="5">
         <v>90</v>
       </c>
-      <c r="J162" s="5">
-        <v>25</v>
-      </c>
+      <c r="J162" s="5"/>
       <c r="K162" s="6">
         <v>6</v>
       </c>
@@ -9061,9 +8739,7 @@
       <c r="I163" s="5">
         <v>90</v>
       </c>
-      <c r="J163" s="5">
-        <v>25</v>
-      </c>
+      <c r="J163" s="5"/>
       <c r="K163" s="6">
         <v>6</v>
       </c>
@@ -9104,9 +8780,7 @@
       <c r="I164" s="5">
         <v>90</v>
       </c>
-      <c r="J164" s="5">
-        <v>25</v>
-      </c>
+      <c r="J164" s="5"/>
       <c r="K164" s="6">
         <v>6</v>
       </c>
@@ -9147,9 +8821,7 @@
       <c r="I165" s="5">
         <v>90</v>
       </c>
-      <c r="J165" s="5">
-        <v>25</v>
-      </c>
+      <c r="J165" s="5"/>
       <c r="K165" s="6">
         <v>6</v>
       </c>
@@ -9190,9 +8862,7 @@
       <c r="I166" s="5">
         <v>90</v>
       </c>
-      <c r="J166" s="5">
-        <v>25</v>
-      </c>
+      <c r="J166" s="5"/>
       <c r="K166" s="6">
         <v>6</v>
       </c>
@@ -9233,9 +8903,7 @@
       <c r="I167" s="5">
         <v>90</v>
       </c>
-      <c r="J167" s="5">
-        <v>25</v>
-      </c>
+      <c r="J167" s="5"/>
       <c r="K167" s="6">
         <v>6</v>
       </c>
@@ -9276,9 +8944,7 @@
       <c r="I168" s="5">
         <v>90</v>
       </c>
-      <c r="J168" s="5">
-        <v>25</v>
-      </c>
+      <c r="J168" s="5"/>
       <c r="K168" s="6">
         <v>6</v>
       </c>
@@ -9319,9 +8985,7 @@
       <c r="I169" s="5">
         <v>90</v>
       </c>
-      <c r="J169" s="5">
-        <v>25</v>
-      </c>
+      <c r="J169" s="5"/>
       <c r="K169" s="6">
         <v>6</v>
       </c>
@@ -9362,9 +9026,7 @@
       <c r="I170" s="5">
         <v>90</v>
       </c>
-      <c r="J170" s="5">
-        <v>25</v>
-      </c>
+      <c r="J170" s="5"/>
       <c r="K170" s="6">
         <v>6</v>
       </c>
@@ -9405,9 +9067,7 @@
       <c r="I171" s="5">
         <v>90</v>
       </c>
-      <c r="J171" s="5">
-        <v>25</v>
-      </c>
+      <c r="J171" s="5"/>
       <c r="K171" s="6">
         <v>6</v>
       </c>
@@ -9448,9 +9108,7 @@
       <c r="I172" s="5">
         <v>90</v>
       </c>
-      <c r="J172" s="5">
-        <v>25</v>
-      </c>
+      <c r="J172" s="5"/>
       <c r="K172" s="6">
         <v>6</v>
       </c>
@@ -9491,9 +9149,7 @@
       <c r="I173" s="5">
         <v>90</v>
       </c>
-      <c r="J173" s="5">
-        <v>25</v>
-      </c>
+      <c r="J173" s="5"/>
       <c r="K173" s="6">
         <v>6</v>
       </c>
@@ -9534,9 +9190,7 @@
       <c r="I174" s="5">
         <v>90</v>
       </c>
-      <c r="J174" s="5">
-        <v>25</v>
-      </c>
+      <c r="J174" s="5"/>
       <c r="K174" s="6">
         <v>6</v>
       </c>
@@ -9577,9 +9231,7 @@
       <c r="I175" s="5">
         <v>90</v>
       </c>
-      <c r="J175" s="5">
-        <v>25</v>
-      </c>
+      <c r="J175" s="5"/>
       <c r="K175" s="6">
         <v>6</v>
       </c>
@@ -9620,9 +9272,7 @@
       <c r="I176" s="5">
         <v>90</v>
       </c>
-      <c r="J176" s="5">
-        <v>25</v>
-      </c>
+      <c r="J176" s="5"/>
       <c r="K176" s="6">
         <v>6</v>
       </c>
@@ -9663,9 +9313,7 @@
       <c r="I177" s="5">
         <v>90</v>
       </c>
-      <c r="J177" s="5">
-        <v>25</v>
-      </c>
+      <c r="J177" s="5"/>
       <c r="K177" s="6">
         <v>6</v>
       </c>
@@ -9706,9 +9354,7 @@
       <c r="I178" s="5">
         <v>90</v>
       </c>
-      <c r="J178" s="5">
-        <v>25</v>
-      </c>
+      <c r="J178" s="5"/>
       <c r="K178" s="6">
         <v>6</v>
       </c>
@@ -9749,9 +9395,7 @@
       <c r="I179" s="5">
         <v>90</v>
       </c>
-      <c r="J179" s="5">
-        <v>25</v>
-      </c>
+      <c r="J179" s="5"/>
       <c r="K179" s="6">
         <v>6</v>
       </c>
@@ -9792,9 +9436,7 @@
       <c r="I180" s="5">
         <v>90</v>
       </c>
-      <c r="J180" s="5">
-        <v>25</v>
-      </c>
+      <c r="J180" s="5"/>
       <c r="K180" s="6">
         <v>6</v>
       </c>
@@ -9835,9 +9477,7 @@
       <c r="I181" s="5">
         <v>90</v>
       </c>
-      <c r="J181" s="5">
-        <v>25</v>
-      </c>
+      <c r="J181" s="5"/>
       <c r="K181" s="6">
         <v>6</v>
       </c>
@@ -9878,9 +9518,7 @@
       <c r="I182" s="5">
         <v>90</v>
       </c>
-      <c r="J182" s="5">
-        <v>25</v>
-      </c>
+      <c r="J182" s="5"/>
       <c r="K182" s="6">
         <v>6</v>
       </c>
@@ -9921,9 +9559,7 @@
       <c r="I183" s="5">
         <v>90</v>
       </c>
-      <c r="J183" s="5">
-        <v>25</v>
-      </c>
+      <c r="J183" s="5"/>
       <c r="K183" s="6">
         <v>6</v>
       </c>
@@ -9964,9 +9600,7 @@
       <c r="I184" s="5">
         <v>90</v>
       </c>
-      <c r="J184" s="5">
-        <v>25</v>
-      </c>
+      <c r="J184" s="5"/>
       <c r="K184" s="6">
         <v>6</v>
       </c>
@@ -10007,9 +9641,7 @@
       <c r="I185" s="5">
         <v>90</v>
       </c>
-      <c r="J185" s="5">
-        <v>25</v>
-      </c>
+      <c r="J185" s="5"/>
       <c r="K185" s="6">
         <v>6</v>
       </c>
@@ -10050,9 +9682,7 @@
       <c r="I186" s="5">
         <v>90</v>
       </c>
-      <c r="J186" s="5">
-        <v>25</v>
-      </c>
+      <c r="J186" s="5"/>
       <c r="K186" s="6">
         <v>6</v>
       </c>
@@ -10093,9 +9723,7 @@
       <c r="I187" s="5">
         <v>90</v>
       </c>
-      <c r="J187" s="5">
-        <v>25</v>
-      </c>
+      <c r="J187" s="5"/>
       <c r="K187" s="6">
         <v>6</v>
       </c>
@@ -10136,9 +9764,7 @@
       <c r="I188" s="5">
         <v>90</v>
       </c>
-      <c r="J188" s="5">
-        <v>25</v>
-      </c>
+      <c r="J188" s="5"/>
       <c r="K188" s="6">
         <v>6</v>
       </c>
@@ -10179,9 +9805,7 @@
       <c r="I189" s="5">
         <v>90</v>
       </c>
-      <c r="J189" s="5">
-        <v>25</v>
-      </c>
+      <c r="J189" s="5"/>
       <c r="K189" s="6">
         <v>6</v>
       </c>
@@ -10222,9 +9846,7 @@
       <c r="I190" s="5">
         <v>90</v>
       </c>
-      <c r="J190" s="5">
-        <v>25</v>
-      </c>
+      <c r="J190" s="5"/>
       <c r="K190" s="6">
         <v>6</v>
       </c>
@@ -10265,9 +9887,7 @@
       <c r="I191" s="5">
         <v>90</v>
       </c>
-      <c r="J191" s="5">
-        <v>25</v>
-      </c>
+      <c r="J191" s="5"/>
       <c r="K191" s="6">
         <v>6</v>
       </c>
@@ -10308,9 +9928,7 @@
       <c r="I192" s="5">
         <v>90</v>
       </c>
-      <c r="J192" s="5">
-        <v>25</v>
-      </c>
+      <c r="J192" s="5"/>
       <c r="K192" s="6">
         <v>6</v>
       </c>
@@ -10351,9 +9969,7 @@
       <c r="I193" s="5">
         <v>90</v>
       </c>
-      <c r="J193" s="5">
-        <v>25</v>
-      </c>
+      <c r="J193" s="5"/>
       <c r="K193" s="6">
         <v>6</v>
       </c>
@@ -10394,9 +10010,7 @@
       <c r="I194" s="5">
         <v>90</v>
       </c>
-      <c r="J194" s="5">
-        <v>25</v>
-      </c>
+      <c r="J194" s="5"/>
       <c r="K194" s="6">
         <v>6</v>
       </c>
@@ -10437,9 +10051,7 @@
       <c r="I195" s="5">
         <v>90</v>
       </c>
-      <c r="J195" s="5">
-        <v>25</v>
-      </c>
+      <c r="J195" s="5"/>
       <c r="K195" s="6">
         <v>6</v>
       </c>
@@ -10480,9 +10092,7 @@
       <c r="I196" s="5">
         <v>90</v>
       </c>
-      <c r="J196" s="5">
-        <v>25</v>
-      </c>
+      <c r="J196" s="5"/>
       <c r="K196" s="6">
         <v>6</v>
       </c>
@@ -10523,9 +10133,7 @@
       <c r="I197" s="5">
         <v>90</v>
       </c>
-      <c r="J197" s="5">
-        <v>25</v>
-      </c>
+      <c r="J197" s="5"/>
       <c r="K197" s="6">
         <v>6</v>
       </c>
@@ -10566,9 +10174,7 @@
       <c r="I198" s="5">
         <v>90</v>
       </c>
-      <c r="J198" s="5">
-        <v>25</v>
-      </c>
+      <c r="J198" s="5"/>
       <c r="K198" s="6">
         <v>6</v>
       </c>
@@ -10609,9 +10215,7 @@
       <c r="I199" s="5">
         <v>90</v>
       </c>
-      <c r="J199" s="5">
-        <v>25</v>
-      </c>
+      <c r="J199" s="5"/>
       <c r="K199" s="6">
         <v>6</v>
       </c>
@@ -10652,9 +10256,7 @@
       <c r="I200" s="5">
         <v>90</v>
       </c>
-      <c r="J200" s="5">
-        <v>25</v>
-      </c>
+      <c r="J200" s="5"/>
       <c r="K200" s="6">
         <v>6</v>
       </c>
@@ -10695,9 +10297,7 @@
       <c r="I201" s="5">
         <v>90</v>
       </c>
-      <c r="J201" s="5">
-        <v>25</v>
-      </c>
+      <c r="J201" s="5"/>
       <c r="K201" s="6">
         <v>6</v>
       </c>
@@ -10738,9 +10338,7 @@
       <c r="I202" s="5">
         <v>90</v>
       </c>
-      <c r="J202" s="5">
-        <v>25</v>
-      </c>
+      <c r="J202" s="5"/>
       <c r="K202" s="6">
         <v>6</v>
       </c>
@@ -10781,9 +10379,7 @@
       <c r="I203" s="5">
         <v>90</v>
       </c>
-      <c r="J203" s="5">
-        <v>25</v>
-      </c>
+      <c r="J203" s="5"/>
       <c r="K203" s="6">
         <v>6</v>
       </c>
@@ -10824,9 +10420,7 @@
       <c r="I204" s="5">
         <v>90</v>
       </c>
-      <c r="J204" s="5">
-        <v>25</v>
-      </c>
+      <c r="J204" s="5"/>
       <c r="K204" s="6">
         <v>6</v>
       </c>
@@ -10867,9 +10461,7 @@
       <c r="I205" s="5">
         <v>90</v>
       </c>
-      <c r="J205" s="5">
-        <v>25</v>
-      </c>
+      <c r="J205" s="5"/>
       <c r="K205" s="6">
         <v>6</v>
       </c>
@@ -10910,9 +10502,7 @@
       <c r="I206" s="5">
         <v>90</v>
       </c>
-      <c r="J206" s="5">
-        <v>25</v>
-      </c>
+      <c r="J206" s="5"/>
       <c r="K206" s="6">
         <v>6</v>
       </c>
@@ -10953,9 +10543,7 @@
       <c r="I207" s="5">
         <v>90</v>
       </c>
-      <c r="J207" s="5">
-        <v>25</v>
-      </c>
+      <c r="J207" s="5"/>
       <c r="K207" s="6">
         <v>6</v>
       </c>
@@ -10996,9 +10584,7 @@
       <c r="I208" s="5">
         <v>90</v>
       </c>
-      <c r="J208" s="5">
-        <v>25</v>
-      </c>
+      <c r="J208" s="5"/>
       <c r="K208" s="6">
         <v>6</v>
       </c>
@@ -11039,9 +10625,7 @@
       <c r="I209" s="5">
         <v>90</v>
       </c>
-      <c r="J209" s="5">
-        <v>25</v>
-      </c>
+      <c r="J209" s="5"/>
       <c r="K209" s="6">
         <v>6</v>
       </c>
@@ -11082,9 +10666,7 @@
       <c r="I210" s="5">
         <v>90</v>
       </c>
-      <c r="J210" s="5">
-        <v>25</v>
-      </c>
+      <c r="J210" s="5"/>
       <c r="K210" s="6">
         <v>6</v>
       </c>
@@ -11125,9 +10707,7 @@
       <c r="I211" s="5">
         <v>90</v>
       </c>
-      <c r="J211" s="5">
-        <v>25</v>
-      </c>
+      <c r="J211" s="5"/>
       <c r="K211" s="6">
         <v>6</v>
       </c>
@@ -11168,9 +10748,7 @@
       <c r="I212" s="5">
         <v>90</v>
       </c>
-      <c r="J212" s="5">
-        <v>25</v>
-      </c>
+      <c r="J212" s="5"/>
       <c r="K212" s="6">
         <v>6</v>
       </c>
@@ -11211,9 +10789,7 @@
       <c r="I213" s="5">
         <v>90</v>
       </c>
-      <c r="J213" s="5">
-        <v>25</v>
-      </c>
+      <c r="J213" s="5"/>
       <c r="K213" s="6">
         <v>6</v>
       </c>
@@ -11254,9 +10830,7 @@
       <c r="I214" s="5">
         <v>90</v>
       </c>
-      <c r="J214" s="5">
-        <v>25</v>
-      </c>
+      <c r="J214" s="5"/>
       <c r="K214" s="6">
         <v>6</v>
       </c>
@@ -11297,9 +10871,7 @@
       <c r="I215" s="5">
         <v>90</v>
       </c>
-      <c r="J215" s="5">
-        <v>25</v>
-      </c>
+      <c r="J215" s="5"/>
       <c r="K215" s="6">
         <v>6</v>
       </c>
@@ -11340,9 +10912,7 @@
       <c r="I216" s="5">
         <v>90</v>
       </c>
-      <c r="J216" s="5">
-        <v>25</v>
-      </c>
+      <c r="J216" s="5"/>
       <c r="K216" s="6">
         <v>6</v>
       </c>
@@ -11383,9 +10953,7 @@
       <c r="I217" s="5">
         <v>90</v>
       </c>
-      <c r="J217" s="5">
-        <v>25</v>
-      </c>
+      <c r="J217" s="5"/>
       <c r="K217" s="6">
         <v>6</v>
       </c>
@@ -11426,9 +10994,7 @@
       <c r="I218" s="5">
         <v>90</v>
       </c>
-      <c r="J218" s="5">
-        <v>25</v>
-      </c>
+      <c r="J218" s="5"/>
       <c r="K218" s="6">
         <v>6</v>
       </c>
@@ -11469,9 +11035,7 @@
       <c r="I219" s="5">
         <v>90</v>
       </c>
-      <c r="J219" s="5">
-        <v>25</v>
-      </c>
+      <c r="J219" s="5"/>
       <c r="K219" s="6">
         <v>6</v>
       </c>
@@ -11512,9 +11076,7 @@
       <c r="I220" s="5">
         <v>90</v>
       </c>
-      <c r="J220" s="5">
-        <v>25</v>
-      </c>
+      <c r="J220" s="5"/>
       <c r="K220" s="6">
         <v>6</v>
       </c>
@@ -11555,9 +11117,7 @@
       <c r="I221" s="5">
         <v>90</v>
       </c>
-      <c r="J221" s="5">
-        <v>25</v>
-      </c>
+      <c r="J221" s="5"/>
       <c r="K221" s="6">
         <v>6</v>
       </c>
@@ -11598,9 +11158,7 @@
       <c r="I222" s="5">
         <v>90</v>
       </c>
-      <c r="J222" s="5">
-        <v>25</v>
-      </c>
+      <c r="J222" s="5"/>
       <c r="K222" s="6">
         <v>6</v>
       </c>
@@ -11641,9 +11199,7 @@
       <c r="I223" s="5">
         <v>90</v>
       </c>
-      <c r="J223" s="5">
-        <v>25</v>
-      </c>
+      <c r="J223" s="5"/>
       <c r="K223" s="6">
         <v>6</v>
       </c>
@@ -11684,9 +11240,7 @@
       <c r="I224" s="5">
         <v>90</v>
       </c>
-      <c r="J224" s="5">
-        <v>25</v>
-      </c>
+      <c r="J224" s="5"/>
       <c r="K224" s="6">
         <v>6</v>
       </c>
@@ -11727,9 +11281,7 @@
       <c r="I225" s="5">
         <v>90</v>
       </c>
-      <c r="J225" s="5">
-        <v>25</v>
-      </c>
+      <c r="J225" s="5"/>
       <c r="K225" s="6">
         <v>6</v>
       </c>
@@ -11770,9 +11322,7 @@
       <c r="I226" s="5">
         <v>90</v>
       </c>
-      <c r="J226" s="5">
-        <v>25</v>
-      </c>
+      <c r="J226" s="5"/>
       <c r="K226" s="6">
         <v>6</v>
       </c>
@@ -11813,9 +11363,7 @@
       <c r="I227" s="5">
         <v>90</v>
       </c>
-      <c r="J227" s="5">
-        <v>25</v>
-      </c>
+      <c r="J227" s="5"/>
       <c r="K227" s="6">
         <v>6</v>
       </c>
@@ -11856,9 +11404,7 @@
       <c r="I228" s="5">
         <v>90</v>
       </c>
-      <c r="J228" s="5">
-        <v>25</v>
-      </c>
+      <c r="J228" s="5"/>
       <c r="K228" s="6">
         <v>6</v>
       </c>
@@ -11899,9 +11445,7 @@
       <c r="I229" s="5">
         <v>90</v>
       </c>
-      <c r="J229" s="5">
-        <v>25</v>
-      </c>
+      <c r="J229" s="5"/>
       <c r="K229" s="6">
         <v>6</v>
       </c>
@@ -11942,9 +11486,7 @@
       <c r="I230" s="5">
         <v>90</v>
       </c>
-      <c r="J230" s="5">
-        <v>25</v>
-      </c>
+      <c r="J230" s="5"/>
       <c r="K230" s="6">
         <v>6</v>
       </c>
@@ -11985,9 +11527,7 @@
       <c r="I231" s="5">
         <v>90</v>
       </c>
-      <c r="J231" s="5">
-        <v>25</v>
-      </c>
+      <c r="J231" s="5"/>
       <c r="K231" s="6">
         <v>6</v>
       </c>
@@ -12028,9 +11568,7 @@
       <c r="I232" s="5">
         <v>90</v>
       </c>
-      <c r="J232" s="5">
-        <v>25</v>
-      </c>
+      <c r="J232" s="5"/>
       <c r="K232" s="6">
         <v>6</v>
       </c>
@@ -12071,9 +11609,7 @@
       <c r="I233" s="5">
         <v>90</v>
       </c>
-      <c r="J233" s="5">
-        <v>25</v>
-      </c>
+      <c r="J233" s="5"/>
       <c r="K233" s="6">
         <v>6</v>
       </c>
@@ -12114,9 +11650,7 @@
       <c r="I234" s="5">
         <v>90</v>
       </c>
-      <c r="J234" s="5">
-        <v>25</v>
-      </c>
+      <c r="J234" s="5"/>
       <c r="K234" s="6">
         <v>6</v>
       </c>
@@ -12157,9 +11691,7 @@
       <c r="I235" s="5">
         <v>90</v>
       </c>
-      <c r="J235" s="5">
-        <v>25</v>
-      </c>
+      <c r="J235" s="5"/>
       <c r="K235" s="6">
         <v>6</v>
       </c>
@@ -12200,9 +11732,7 @@
       <c r="I236" s="5">
         <v>90</v>
       </c>
-      <c r="J236" s="5">
-        <v>25</v>
-      </c>
+      <c r="J236" s="5"/>
       <c r="K236" s="6">
         <v>6</v>
       </c>
@@ -12235,8 +11765,12 @@
       <c r="E237" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F237" s="5"/>
-      <c r="G237" s="5"/>
+      <c r="F237" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="G237" s="5">
+        <v>4</v>
+      </c>
       <c r="H237" s="5">
         <v>80</v>
       </c>
@@ -12278,16 +11812,20 @@
       <c r="E238" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F238" s="5"/>
-      <c r="G238" s="5"/>
+      <c r="F238" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="G238" s="9">
+        <v>13</v>
+      </c>
       <c r="H238" s="5">
         <v>80</v>
       </c>
       <c r="I238" s="5">
         <v>90</v>
       </c>
-      <c r="J238" s="5">
-        <v>25</v>
+      <c r="J238" s="12">
+        <v>0.9</v>
       </c>
       <c r="K238" s="6">
         <v>6</v>
@@ -12321,16 +11859,20 @@
       <c r="E239" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F239" s="5"/>
-      <c r="G239" s="5"/>
+      <c r="F239" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G239" s="9">
+        <v>11</v>
+      </c>
       <c r="H239" s="5">
         <v>80</v>
       </c>
       <c r="I239" s="5">
         <v>90</v>
       </c>
-      <c r="J239" s="5">
-        <v>25</v>
+      <c r="J239" s="12">
+        <v>9</v>
       </c>
       <c r="K239" s="6">
         <v>6</v>
@@ -12364,16 +11906,20 @@
       <c r="E240" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F240" s="5"/>
-      <c r="G240" s="5"/>
+      <c r="F240" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="G240" s="9">
+        <v>40</v>
+      </c>
       <c r="H240" s="5">
         <v>80</v>
       </c>
       <c r="I240" s="5">
         <v>90</v>
       </c>
-      <c r="J240" s="5">
-        <v>25</v>
+      <c r="J240" s="12">
+        <v>0.15</v>
       </c>
       <c r="K240" s="6">
         <v>6</v>
@@ -12415,9 +11961,7 @@
       <c r="I241" s="5">
         <v>90</v>
       </c>
-      <c r="J241" s="5">
-        <v>25</v>
-      </c>
+      <c r="J241" s="5"/>
       <c r="K241" s="6">
         <v>6</v>
       </c>
@@ -12458,9 +12002,7 @@
       <c r="I242" s="5">
         <v>90</v>
       </c>
-      <c r="J242" s="5">
-        <v>25</v>
-      </c>
+      <c r="J242" s="5"/>
       <c r="K242" s="6">
         <v>6</v>
       </c>
@@ -12501,9 +12043,7 @@
       <c r="I243" s="5">
         <v>90</v>
       </c>
-      <c r="J243" s="5">
-        <v>25</v>
-      </c>
+      <c r="J243" s="5"/>
       <c r="K243" s="6">
         <v>6</v>
       </c>
@@ -12544,9 +12084,7 @@
       <c r="I244" s="5">
         <v>90</v>
       </c>
-      <c r="J244" s="5">
-        <v>25</v>
-      </c>
+      <c r="J244" s="5"/>
       <c r="K244" s="6">
         <v>6</v>
       </c>
@@ -12587,9 +12125,7 @@
       <c r="I245" s="5">
         <v>90</v>
       </c>
-      <c r="J245" s="5">
-        <v>25</v>
-      </c>
+      <c r="J245" s="5"/>
       <c r="K245" s="6">
         <v>6</v>
       </c>
@@ -12630,9 +12166,7 @@
       <c r="I246" s="5">
         <v>90</v>
       </c>
-      <c r="J246" s="5">
-        <v>25</v>
-      </c>
+      <c r="J246" s="5"/>
       <c r="K246" s="6">
         <v>6</v>
       </c>
@@ -12673,9 +12207,7 @@
       <c r="I247" s="5">
         <v>90</v>
       </c>
-      <c r="J247" s="5">
-        <v>25</v>
-      </c>
+      <c r="J247" s="5"/>
       <c r="K247" s="6">
         <v>6</v>
       </c>
@@ -12708,21 +12240,13 @@
       <c r="E248" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F248" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="G248" s="5">
-        <v>4</v>
-      </c>
       <c r="H248" s="5">
         <v>80</v>
       </c>
       <c r="I248" s="5">
         <v>90</v>
       </c>
-      <c r="J248" s="5">
-        <v>25</v>
-      </c>
+      <c r="J248" s="5"/>
       <c r="K248" s="6">
         <v>6</v>
       </c>
@@ -12737,66 +12261,6 @@
       </c>
       <c r="O248" s="7">
         <v>-49.363160499999999</v>
-      </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F249" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="G249" s="9">
-        <v>13</v>
-      </c>
-      <c r="H249" s="5">
-        <v>80</v>
-      </c>
-      <c r="I249" s="5">
-        <v>90</v>
-      </c>
-      <c r="J249" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="K249" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F250" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="G250" s="9">
-        <v>11</v>
-      </c>
-      <c r="H250" s="5">
-        <v>80</v>
-      </c>
-      <c r="I250" s="5">
-        <v>90</v>
-      </c>
-      <c r="J250" s="12">
-        <v>9</v>
-      </c>
-      <c r="K250" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F251" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="G251" s="9">
-        <v>40</v>
-      </c>
-      <c r="H251" s="5">
-        <v>80</v>
-      </c>
-      <c r="I251" s="5">
-        <v>90</v>
-      </c>
-      <c r="J251" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="K251" s="6">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
